--- a/stage2_excels/GA/GA_merge_data.xlsx
+++ b/stage2_excels/GA/GA_merge_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP19"/>
+  <dimension ref="A1:BF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_75</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_25</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_75</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_25</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_75</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_percentile_25</t>
+          <t>lab_l_25</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_percentile_75</t>
+          <t>lab_l_75</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_percentile_25</t>
+          <t>lab_a_25</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_percentile_75</t>
+          <t>lab_a_75</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -626,282 +626,102 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_percentile_25</t>
+          <t>lab_b_25</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_percentile_75</t>
+          <t>lab_b_75</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_mean</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_median</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_variance</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_std_dev</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_percentile_25</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_mean</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_median</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_variance</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_std_dev</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_percentile_25</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_percentile_75</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_mean</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_median</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_variance</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_std_dev</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_percentile_25</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_percentile_75</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_mean</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_median</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_variance</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_std_dev</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_percentile_25</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_percentile_75</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_mean</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_median</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_variance</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_std_dev</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_percentile_25</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_percentile_75</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_mean</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_median</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_variance</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_std_dev</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_percentile_25</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_percentile_75</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_mean</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_median</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_percentile_25</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_percentile_75</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_percentile_25</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_percentile_75</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_percentile_25</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_percentile_75</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
     </row>
@@ -1029,166 +849,58 @@
         <v>152</v>
       </c>
       <c r="AO2" t="n">
-        <v>76.29185450393121</v>
+        <v>69.84467592867934</v>
       </c>
       <c r="AP2" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1324.063998429474</v>
+        <v>1051.099273107798</v>
       </c>
       <c r="AR2" t="n">
-        <v>36.38769020464852</v>
+        <v>32.42066120713453</v>
       </c>
       <c r="AS2" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AT2" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AU2" t="n">
-        <v>106.265477618683</v>
+        <v>67.50786240201734</v>
       </c>
       <c r="AV2" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="AW2" t="n">
-        <v>176.3918827786418</v>
+        <v>1237.586356210254</v>
       </c>
       <c r="AX2" t="n">
-        <v>13.28126058695641</v>
+        <v>35.17934559098924</v>
       </c>
       <c r="AY2" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="AZ2" t="n">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="BA2" t="n">
-        <v>144.5227429993981</v>
+        <v>38.50034797194811</v>
       </c>
       <c r="BB2" t="n">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>117.7889341178831</v>
+        <v>1820.435388626038</v>
       </c>
       <c r="BD2" t="n">
-        <v>10.85306104828878</v>
+        <v>42.66656054366273</v>
       </c>
       <c r="BE2" t="n">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="BF2" t="n">
-        <v>153</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>69.84467592867934</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>64</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1051.099273107798</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>32.42066120713453</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>48</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>83</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>67.50786240201734</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>59</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1237.586356210254</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>35.17934559098924</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>45</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>83</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>38.50034797194811</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>20</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1820.435388626038</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>42.66656054366273</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>10</v>
-      </c>
-      <c r="BX2" t="n">
         <v>50</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>69.97129509581187</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>63</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1205.85327851328</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>34.72539817645408</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>47</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>85</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>119.1857191406426</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>130.6443139480517</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>11.42997436340308</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>111</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>141.4154584426911</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>275.5525333936407</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>16.59977510069461</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -1315,166 +1027,58 @@
         <v>128</v>
       </c>
       <c r="AO3" t="n">
-        <v>70.56052965238693</v>
+        <v>65.24523246741326</v>
       </c>
       <c r="AP3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1733.090647504073</v>
+        <v>1351.454530809278</v>
       </c>
       <c r="AR3" t="n">
-        <v>41.63040532476321</v>
+        <v>36.76213447025727</v>
       </c>
       <c r="AS3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AT3" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AU3" t="n">
-        <v>98.18365065256755</v>
+        <v>63.01972129153663</v>
       </c>
       <c r="AV3" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>47.89690248592722</v>
+        <v>1595.557575890744</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.920758808535898</v>
+        <v>39.94443109985101</v>
       </c>
       <c r="AY3" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AZ3" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BA3" t="n">
-        <v>137.880942662557</v>
+        <v>37.29771920146192</v>
       </c>
       <c r="BB3" t="n">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="BC3" t="n">
-        <v>36.53898188523196</v>
+        <v>1903.157076364233</v>
       </c>
       <c r="BD3" t="n">
-        <v>6.044748289650443</v>
+        <v>43.62518855391038</v>
       </c>
       <c r="BE3" t="n">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="BF3" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>65.24523246741326</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>55</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1351.454530809278</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>36.76213447025727</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>83</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>63.01972129153663</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>1595.557575890744</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>39.94443109985101</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>35</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>85</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>37.29771920146192</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>17</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1903.157076364233</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>43.62518855391038</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="BX3" t="n">
         <v>53</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>65.32000986781715</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>54</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>1554.67485639792</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>39.42936540698975</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>38</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>86</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>126.088028271993</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>36.09171766507369</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>6.007638276816747</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>130.9728139241537</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>82.59342989819632</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>9.088092753608775</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -1601,166 +1205,58 @@
         <v>153</v>
       </c>
       <c r="AO4" t="n">
-        <v>76.28271447942153</v>
+        <v>69.01037909604941</v>
       </c>
       <c r="AP4" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1260.869052089668</v>
+        <v>982.8686897915128</v>
       </c>
       <c r="AR4" t="n">
-        <v>35.50871797305089</v>
+        <v>31.35073667063523</v>
       </c>
       <c r="AS4" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AT4" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AU4" t="n">
-        <v>104.9153920371428</v>
+        <v>67.80413329466271</v>
       </c>
       <c r="AV4" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="AW4" t="n">
-        <v>144.6845350063892</v>
+        <v>1163.205789161181</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.02848847554792</v>
+        <v>34.10580286639183</v>
       </c>
       <c r="AY4" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="AZ4" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="BA4" t="n">
-        <v>144.7131156252214</v>
+        <v>35.05649613863718</v>
       </c>
       <c r="BB4" t="n">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>139.5148335026119</v>
+        <v>1497.040851274913</v>
       </c>
       <c r="BD4" t="n">
-        <v>11.81163974656406</v>
+        <v>38.69161215657618</v>
       </c>
       <c r="BE4" t="n">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="BF4" t="n">
-        <v>154</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>69.01037909604941</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>63</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>982.8686897915128</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>31.35073667063523</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>47</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>83</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>67.80413329466271</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>59</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>1163.205789161181</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>34.10580286639183</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>45</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>85</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>35.05649613863718</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>21</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>1497.040851274913</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>38.69161215657618</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BX4" t="n">
         <v>43</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>69.82749431715365</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>62</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>1131.780086437595</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>33.64193939768626</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>47</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>86</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>119.1706267009532</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>140.8683125413667</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>11.86879574941648</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>109</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>139.8080439194962</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>235.6229570217147</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>15.35001488669358</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>153</v>
       </c>
     </row>
     <row r="5">
@@ -1842,7 +1338,7 @@
         <v>1422.578761691438</v>
       </c>
       <c r="Z5" t="n">
-        <v>37.71708845724228</v>
+        <v>37.71708845724227</v>
       </c>
       <c r="AA5" t="n">
         <v>54</v>
@@ -1887,166 +1383,58 @@
         <v>157</v>
       </c>
       <c r="AO5" t="n">
-        <v>79.54884349839176</v>
+        <v>71.83136792936018</v>
       </c>
       <c r="AP5" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1421.828901317643</v>
+        <v>1097.46186049381</v>
       </c>
       <c r="AR5" t="n">
-        <v>37.70714655496545</v>
+        <v>33.12796191276804</v>
       </c>
       <c r="AS5" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AT5" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AU5" t="n">
-        <v>107.3085144420736</v>
+        <v>68.69070906148204</v>
       </c>
       <c r="AV5" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="AW5" t="n">
-        <v>253.7237065121606</v>
+        <v>1313.593765679035</v>
       </c>
       <c r="AX5" t="n">
-        <v>15.92870699435961</v>
+        <v>36.24353412236498</v>
       </c>
       <c r="AY5" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AZ5" t="n">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BA5" t="n">
-        <v>145.3321378970143</v>
+        <v>29.50337862756829</v>
       </c>
       <c r="BB5" t="n">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>172.0487309706865</v>
+        <v>1506.231396913224</v>
       </c>
       <c r="BD5" t="n">
-        <v>13.1167347678714</v>
+        <v>38.81019707387769</v>
       </c>
       <c r="BE5" t="n">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="BF5" t="n">
-        <v>156</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>71.83136792936018</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>68</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1097.46186049381</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>33.12796191276804</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>49</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>88</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>68.69070906148204</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>62</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>1313.593765679035</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>36.24353412236498</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>44</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>88</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>29.50337862756829</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>13</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>1506.231396913224</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>38.81019707387769</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>8</v>
-      </c>
-      <c r="BX5" t="n">
         <v>34</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>71.54639323103399</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>66</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>1272.606619256486</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>35.67361236623628</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>47</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>90</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>118.0092790467851</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>191.6864400380452</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>13.84508721670056</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>106</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>142.4714237472749</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>382.7622217372686</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>19.56430989678064</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>159</v>
       </c>
     </row>
     <row r="6">
@@ -2107,7 +1495,7 @@
         <v>108</v>
       </c>
       <c r="S6" t="n">
-        <v>957.3198062024021</v>
+        <v>957.319806202402</v>
       </c>
       <c r="T6" t="n">
         <v>30.94058509793249</v>
@@ -2173,166 +1561,58 @@
         <v>128</v>
       </c>
       <c r="AO6" t="n">
-        <v>79.99240787869715</v>
+        <v>72.0436249094903</v>
       </c>
       <c r="AP6" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1209.381913133846</v>
+        <v>899.5425726442807</v>
       </c>
       <c r="AR6" t="n">
-        <v>34.77616875295273</v>
+        <v>29.99237524178905</v>
       </c>
       <c r="AS6" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AT6" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="AU6" t="n">
-        <v>98.3968931833903</v>
+        <v>70.64786610980927</v>
       </c>
       <c r="AV6" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="AW6" t="n">
-        <v>56.49794188069038</v>
+        <v>1147.037581006817</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.516511283879668</v>
+        <v>33.86794326508206</v>
       </c>
       <c r="AY6" t="n">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="AZ6" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="BA6" t="n">
-        <v>138.3910331726074</v>
+        <v>35.06658152899518</v>
       </c>
       <c r="BB6" t="n">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="BC6" t="n">
-        <v>60.39441437750065</v>
+        <v>1194.652977390872</v>
       </c>
       <c r="BD6" t="n">
-        <v>7.771384328258425</v>
+        <v>34.5637523627119</v>
       </c>
       <c r="BE6" t="n">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="BF6" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>72.0436249094903</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>68</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>899.5425726442807</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>29.99237524178905</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>49</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>87</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>70.64786610980927</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>63</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>1147.037581006817</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>33.86794326508206</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>46</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>89</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>35.06658152899518</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>1194.652977390872</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>34.5637523627119</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>12</v>
-      </c>
-      <c r="BX6" t="n">
         <v>44</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>72.82136670404169</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>66</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>1086.08492326861</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>32.95580257357739</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>48</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>90</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>125.6385803222656</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>56.4764988735939</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>7.515084754917532</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>131.1469297409058</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>93.63746895053286</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>9.676645542259614</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -2459,166 +1739,58 @@
         <v>155</v>
       </c>
       <c r="AO7" t="n">
-        <v>96.42251166767976</v>
+        <v>86.45874844173372</v>
       </c>
       <c r="AP7" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AQ7" t="n">
-        <v>889.0342194335694</v>
+        <v>712.7836516361609</v>
       </c>
       <c r="AR7" t="n">
-        <v>29.8166768677123</v>
+        <v>26.69800838332629</v>
       </c>
       <c r="AS7" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AT7" t="n">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AU7" t="n">
-        <v>106.4226014981017</v>
+        <v>87.19279231014907</v>
       </c>
       <c r="AV7" t="n">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AW7" t="n">
-        <v>122.3831153993247</v>
+        <v>854.9597403490532</v>
       </c>
       <c r="AX7" t="n">
-        <v>11.06269024240147</v>
+        <v>29.23969460081711</v>
       </c>
       <c r="AY7" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="AZ7" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="BA7" t="n">
-        <v>148.5583910797961</v>
+        <v>55.86883261386934</v>
       </c>
       <c r="BB7" t="n">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="BC7" t="n">
-        <v>174.9843351204431</v>
+        <v>1322.434450227414</v>
       </c>
       <c r="BD7" t="n">
-        <v>13.22816446527798</v>
+        <v>36.36529183476208</v>
       </c>
       <c r="BE7" t="n">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="BF7" t="n">
-        <v>159</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>86.45874844173372</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>87</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>712.7836516361609</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>26.69800838332629</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>65</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>107</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>87.19279231014907</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>89</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>854.9597403490532</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>29.23969460081711</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>62</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>109</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>55.86883261386934</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>50</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>1322.434450227414</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>36.36529183476208</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>26</v>
-      </c>
-      <c r="BX7" t="n">
         <v>86</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>88.82008592357541</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>90</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>826.5811705849128</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>28.75032470399096</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>65</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>110</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>116.8296035844991</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>118</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>141.7173508056759</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>11.90450968354749</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>107</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>141.7083462735575</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>143</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>200.004844729019</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>14.14230690973078</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>154</v>
       </c>
     </row>
     <row r="8">
@@ -2745,166 +1917,58 @@
         <v>157</v>
       </c>
       <c r="AO8" t="n">
-        <v>136.8945225226283</v>
+        <v>122.6547753608934</v>
       </c>
       <c r="AP8" t="n">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1445.080914441523</v>
+        <v>1229.09179545448</v>
       </c>
       <c r="AR8" t="n">
-        <v>38.01421989784248</v>
+        <v>35.0584054893328</v>
       </c>
       <c r="AS8" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AT8" t="n">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="AU8" t="n">
-        <v>104.7692915169675</v>
+        <v>126.9625205144842</v>
       </c>
       <c r="AV8" t="n">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="AW8" t="n">
-        <v>130.7581737307621</v>
+        <v>1552.145730012913</v>
       </c>
       <c r="AX8" t="n">
-        <v>11.43495403273499</v>
+        <v>39.39728074389033</v>
       </c>
       <c r="AY8" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AZ8" t="n">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="BA8" t="n">
-        <v>150.3235832067263</v>
+        <v>87.7471088889737</v>
       </c>
       <c r="BB8" t="n">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>329.278129197187</v>
+        <v>2224.273402557972</v>
       </c>
       <c r="BD8" t="n">
-        <v>18.14602240705073</v>
+        <v>47.16220311391286</v>
       </c>
       <c r="BE8" t="n">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="BF8" t="n">
-        <v>166</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>122.6547753608935</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>116</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>1229.09179545448</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>35.0584054893328</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>92</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>154</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>126.9625205144842</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>120</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>1552.145730012912</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>39.39728074389033</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>92</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>164</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>87.7471088889737</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>2224.273402557972</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>47.16220311391286</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>49</v>
-      </c>
-      <c r="BX8" t="n">
         <v>121</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>127.9930184696415</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>121</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>1474.238022030635</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>38.39580734963956</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>94</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>164</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>116.370115283845</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>224.3214711505171</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>14.97736529402008</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>104</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>139.649122155822</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>214.4875230554002</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>14.64539255381706</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>153</v>
       </c>
     </row>
     <row r="9">
@@ -2968,7 +2032,7 @@
         <v>626.2606784635723</v>
       </c>
       <c r="T9" t="n">
-        <v>25.02520086759689</v>
+        <v>25.0252008675969</v>
       </c>
       <c r="U9" t="n">
         <v>128</v>
@@ -3022,7 +2086,7 @@
         <v>89.84792647433382</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.478814613354025</v>
+        <v>9.478814613354023</v>
       </c>
       <c r="AM9" t="n">
         <v>128</v>
@@ -3031,166 +2095,58 @@
         <v>128</v>
       </c>
       <c r="AO9" t="n">
-        <v>126.2177708379805</v>
+        <v>112.5638664584728</v>
       </c>
       <c r="AP9" t="n">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="AQ9" t="n">
-        <v>809.9577450196834</v>
+        <v>647.8059418948739</v>
       </c>
       <c r="AR9" t="n">
-        <v>28.45975658749884</v>
+        <v>25.4520321761323</v>
       </c>
       <c r="AS9" t="n">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AT9" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AU9" t="n">
-        <v>97.87882073720296</v>
+        <v>116.5200059483976</v>
       </c>
       <c r="AV9" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="AW9" t="n">
-        <v>33.67060465131099</v>
+        <v>824.638113406166</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.802637732213772</v>
+        <v>28.71651290470635</v>
       </c>
       <c r="AY9" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AZ9" t="n">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="BA9" t="n">
-        <v>139.1722043355306</v>
+        <v>82.44953528143357</v>
       </c>
       <c r="BB9" t="n">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="BC9" t="n">
-        <v>98.85280975780789</v>
+        <v>1140.152493092089</v>
       </c>
       <c r="BD9" t="n">
-        <v>9.942475031792029</v>
+        <v>33.76614418455399</v>
       </c>
       <c r="BE9" t="n">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="BF9" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>112.5638664584727</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>113</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>647.8059418948739</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>25.4520321761323</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>93</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>130</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>116.5200059483977</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>116</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>824.638113406166</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>28.71651290470635</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>95</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>136</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>82.44953528143357</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>80</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>1140.152493092089</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>33.76614418455399</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>57</v>
-      </c>
-      <c r="BX9" t="n">
         <v>103</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>117.4520811956279</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>117</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>780.2514096399237</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>27.932980679475</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>96</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>136</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>125.4886566797892</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>64.01310769281541</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>8.000819188859063</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>130.5319089889526</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>58.84541545595001</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>7.671076551302953</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -3317,166 +2273,58 @@
         <v>128</v>
       </c>
       <c r="AO10" t="n">
-        <v>144.260078726699</v>
+        <v>129.2398562204552</v>
       </c>
       <c r="AP10" t="n">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1099.92268021289</v>
+        <v>941.8629693136712</v>
       </c>
       <c r="AR10" t="n">
-        <v>33.16508224342117</v>
+        <v>30.68978607474596</v>
       </c>
       <c r="AS10" t="n">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AT10" t="n">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="AU10" t="n">
-        <v>98.64288679758708</v>
+        <v>134.0424297620596</v>
       </c>
       <c r="AV10" t="n">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="AW10" t="n">
-        <v>57.44006754988354</v>
+        <v>1197.034142050408</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.578922585030377</v>
+        <v>34.59818119569883</v>
       </c>
       <c r="AY10" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AZ10" t="n">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="BA10" t="n">
-        <v>140.4958718617757</v>
+        <v>91.043766534265</v>
       </c>
       <c r="BB10" t="n">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="BC10" t="n">
-        <v>159.4188761367784</v>
+        <v>1742.984448903765</v>
       </c>
       <c r="BD10" t="n">
-        <v>12.62611880732866</v>
+        <v>41.74906524586827</v>
       </c>
       <c r="BE10" t="n">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="BF10" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>129.2398562204552</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>127</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>941.8629693136713</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>30.68978607474596</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>103</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>153</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>134.0424297620596</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>131</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>1197.034142050408</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>34.59818119569883</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>103</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>162</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>91.04376653426499</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>86</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>1742.984448903765</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>41.74906524586827</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>60</v>
-      </c>
-      <c r="BX10" t="n">
         <v>119</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>135.0340774868683</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>132</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>1133.373841594867</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>33.66561809316543</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>106</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>162</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>124.3918892542521</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>105.6732123504673</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>10.27974767931914</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>131.5215199788412</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>97.3456570890782</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>9.866390276543807</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -3603,166 +2451,58 @@
         <v>156</v>
       </c>
       <c r="AO11" t="n">
-        <v>146.0397379660626</v>
+        <v>130.9820148267857</v>
       </c>
       <c r="AP11" t="n">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="AQ11" t="n">
-        <v>873.0867884085145</v>
+        <v>731.7741740773771</v>
       </c>
       <c r="AR11" t="n">
-        <v>29.54804204018457</v>
+        <v>27.05132481187155</v>
       </c>
       <c r="AS11" t="n">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AT11" t="n">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="AU11" t="n">
-        <v>104.3108569724849</v>
+        <v>136.2265349442713</v>
       </c>
       <c r="AV11" t="n">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AW11" t="n">
-        <v>108.824171815787</v>
+        <v>944.0690116739204</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.43188246750255</v>
+        <v>30.7257060402836</v>
       </c>
       <c r="AY11" t="n">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="AZ11" t="n">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="BA11" t="n">
-        <v>151.1106170315473</v>
+        <v>98.16284133030641</v>
       </c>
       <c r="BB11" t="n">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="BC11" t="n">
-        <v>348.1943913533779</v>
+        <v>1362.994546099761</v>
       </c>
       <c r="BD11" t="n">
-        <v>18.65996761394236</v>
+        <v>36.91875602048045</v>
       </c>
       <c r="BE11" t="n">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="BF11" t="n">
-        <v>167</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>130.9820148267857</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>132</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>731.7741740773771</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>27.05132481187155</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>110</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>136.2265349442713</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>135</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>944.0690116739203</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>30.7257060402836</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>113</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>160</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>98.16284133030641</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>100</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>1362.994546099761</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>36.91875602048044</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>72</v>
-      </c>
-      <c r="BX11" t="n">
         <v>124</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>137.0639757846268</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>137</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>888.5537392587412</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>29.80861853992468</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>114</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>160</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>116.2826135105205</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>219.7868331843283</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>14.82520938079218</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>104</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>139.2445594457222</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>185.1543159579124</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>13.60714209369155</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>152</v>
       </c>
     </row>
     <row r="12">
@@ -3859,7 +2599,7 @@
         <v>128</v>
       </c>
       <c r="AE12" t="n">
-        <v>23.28892137941506</v>
+        <v>23.28892137941505</v>
       </c>
       <c r="AF12" t="n">
         <v>4.825859651856346</v>
@@ -3889,166 +2629,58 @@
         <v>153</v>
       </c>
       <c r="AO12" t="n">
-        <v>164.5356494491557</v>
+        <v>149.6129168635448</v>
       </c>
       <c r="AP12" t="n">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AQ12" t="n">
-        <v>765.303946180099</v>
+        <v>678.8758202117983</v>
       </c>
       <c r="AR12" t="n">
-        <v>27.66412742488183</v>
+        <v>26.05524554119187</v>
       </c>
       <c r="AS12" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AT12" t="n">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AU12" t="n">
-        <v>104.1762494278677</v>
+        <v>155.7459263496169</v>
       </c>
       <c r="AV12" t="n">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="AW12" t="n">
-        <v>83.3719869663161</v>
+        <v>848.2329798698559</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.130826192974878</v>
+        <v>29.12443956318912</v>
       </c>
       <c r="AY12" t="n">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="AZ12" t="n">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="BA12" t="n">
-        <v>151.3788550816242</v>
+        <v>125.6004631126364</v>
       </c>
       <c r="BB12" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="BC12" t="n">
-        <v>337.9850432915028</v>
+        <v>1407.491996834427</v>
       </c>
       <c r="BD12" t="n">
-        <v>18.38436953750394</v>
+        <v>37.51655630297678</v>
       </c>
       <c r="BE12" t="n">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="BF12" t="n">
-        <v>165</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>149.6129168635448</v>
-      </c>
-      <c r="BH12" t="n">
         <v>152</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>678.8758202117983</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>26.05524554119186</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>169</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>155.7459263496169</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>158</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>848.2329798698559</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>29.12443956318912</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>132</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>178</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>125.6004631126364</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>125</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>1407.491996834427</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>37.51655630297678</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>98</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>152</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>156.5852682654553</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>159</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>807.3982340355473</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>28.41475380916659</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>133</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>178</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>116.5739208495892</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>201.1173043922009</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>14.18158328227849</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>107</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>139.287203581003</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>151.6190122722358</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>12.31336721909307</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -4064,7 +2696,7 @@
         <v>29.56496317535279</v>
       </c>
       <c r="D13" t="n">
-        <v>25790.66293698846</v>
+        <v>25790.66293698847</v>
       </c>
       <c r="E13" t="n">
         <v>16.86430674963188</v>
@@ -4163,7 +2795,7 @@
         <v>128</v>
       </c>
       <c r="AK13" t="n">
-        <v>98.59790714889563</v>
+        <v>98.59790714889564</v>
       </c>
       <c r="AL13" t="n">
         <v>9.92964788645074</v>
@@ -4175,166 +2807,58 @@
         <v>128</v>
       </c>
       <c r="AO13" t="n">
-        <v>158.3440464502937</v>
+        <v>143.0486984506887</v>
       </c>
       <c r="AP13" t="n">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AQ13" t="n">
-        <v>647.5396536618503</v>
+        <v>580.8323976326841</v>
       </c>
       <c r="AR13" t="n">
-        <v>25.44680046021209</v>
+        <v>24.10046467669626</v>
       </c>
       <c r="AS13" t="n">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AT13" t="n">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AU13" t="n">
-        <v>97.86664072672527</v>
+        <v>149.0311111240204</v>
       </c>
       <c r="AV13" t="n">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="AW13" t="n">
-        <v>32.56792265082992</v>
+        <v>714.0908841262413</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.706831226769363</v>
+        <v>26.72247900413136</v>
       </c>
       <c r="AY13" t="n">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="AZ13" t="n">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="BA13" t="n">
-        <v>139.4966564178467</v>
+        <v>115.7237032432715</v>
       </c>
       <c r="BB13" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="BC13" t="n">
-        <v>123.3730293376284</v>
+        <v>1499.044200821747</v>
       </c>
       <c r="BD13" t="n">
-        <v>11.10734123621078</v>
+        <v>38.71749218146428</v>
       </c>
       <c r="BE13" t="n">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="BF13" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>143.0486984506887</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>143</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>580.8323976326841</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>24.10046467669626</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>125</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>159</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>149.0311111240204</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>148</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>714.0908841262413</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>26.72247900413136</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>129</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>168</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>115.7237032432715</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>114</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>1499.044200821747</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>38.71749218146428</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>90</v>
-      </c>
-      <c r="BX13" t="n">
         <v>138</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>149.8006256499033</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>149</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>681.7126418030423</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>26.10962737771342</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>130</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>168</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>125.3196557362874</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>79.29437642872357</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>8.904738987119362</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>130.5768473943075</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>59.85146358300949</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>7.736372766549547</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -4371,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>97.66036665813363</v>
+        <v>97.66036665813364</v>
       </c>
       <c r="L14" t="n">
         <v>95</v>
@@ -4461,166 +2985,58 @@
         <v>128</v>
       </c>
       <c r="AO14" t="n">
-        <v>165.6597423174261</v>
+        <v>150.4057222468297</v>
       </c>
       <c r="AP14" t="n">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="AQ14" t="n">
-        <v>595.8451235349901</v>
+        <v>515.6080079044099</v>
       </c>
       <c r="AR14" t="n">
-        <v>24.40993903177536</v>
+        <v>22.70700349901787</v>
       </c>
       <c r="AS14" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AT14" t="n">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="AU14" t="n">
-        <v>98.43109353383382</v>
+        <v>157.0828853579868</v>
       </c>
       <c r="AV14" t="n">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="AW14" t="n">
-        <v>34.81796384350064</v>
+        <v>666.3161093477997</v>
       </c>
       <c r="AX14" t="n">
-        <v>5.900674863394918</v>
+        <v>25.81309956878096</v>
       </c>
       <c r="AY14" t="n">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AZ14" t="n">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="BA14" t="n">
-        <v>141.0431601206461</v>
+        <v>129.0581493138416</v>
       </c>
       <c r="BB14" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="BC14" t="n">
-        <v>150.7963498911599</v>
+        <v>801.0440029040475</v>
       </c>
       <c r="BD14" t="n">
-        <v>12.27991652622932</v>
+        <v>28.30272076857714</v>
       </c>
       <c r="BE14" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="BF14" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>150.4057222468297</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>146</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>515.6080079044099</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>22.70700349901787</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>135</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>167</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>157.0828853579868</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>666.3161093477997</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>25.81309956878096</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>138</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>177</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>129.0581493138416</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>125</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>801.0440029040475</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>28.30272076857714</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>114</v>
-      </c>
-      <c r="BX14" t="n">
         <v>144</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>157.7213024228718</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>153</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>627.2485987559955</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>25.04493159814967</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>140</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>177</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>124.4005651473999</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>77.60302075553871</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>8.809257673353567</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>131.3976256052653</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>64.62705076382015</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>8.039095145837008</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -4657,7 +3073,7 @@
         <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>90.59187115746037</v>
+        <v>90.59187115746036</v>
       </c>
       <c r="L15" t="n">
         <v>90</v>
@@ -4738,7 +3154,7 @@
         <v>59.87280097609599</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.737751674491498</v>
+        <v>7.737751674491499</v>
       </c>
       <c r="AM15" t="n">
         <v>128</v>
@@ -4747,166 +3163,58 @@
         <v>128</v>
       </c>
       <c r="AO15" t="n">
-        <v>161.9541544917122</v>
+        <v>147.3041193277954</v>
       </c>
       <c r="AP15" t="n">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AQ15" t="n">
-        <v>641.5381248274343</v>
+        <v>553.2359159342657</v>
       </c>
       <c r="AR15" t="n">
-        <v>25.3286028992409</v>
+        <v>23.52096758074093</v>
       </c>
       <c r="AS15" t="n">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AT15" t="n">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="AU15" t="n">
-        <v>97.52748457590739</v>
+        <v>153.4143986675965</v>
       </c>
       <c r="AV15" t="n">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="AW15" t="n">
-        <v>22.42850739512474</v>
+        <v>707.8851362989894</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.735874512180906</v>
+        <v>26.60611088263351</v>
       </c>
       <c r="AY15" t="n">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="AZ15" t="n">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="BA15" t="n">
-        <v>138.9540789922079</v>
+        <v>130.0368529618611</v>
       </c>
       <c r="BB15" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="BC15" t="n">
-        <v>87.99304309870941</v>
+        <v>871.5648338865565</v>
       </c>
       <c r="BD15" t="n">
-        <v>9.380460708233333</v>
+        <v>29.52227690891332</v>
       </c>
       <c r="BE15" t="n">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="BF15" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>147.3041193277954</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>148</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>553.2359159342657</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>23.52096758074093</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>130</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>164</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>153.4143986675965</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>153</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>707.8851362989894</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>26.60611088263351</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>133</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>172</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>130.0368529618611</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>130</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>871.5648338865565</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>29.52227690891332</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>112</v>
-      </c>
-      <c r="BX15" t="n">
         <v>150</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>154.178888702525</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>154</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>669.1862034419659</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>25.86863358281542</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>134</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>172</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>125.8896697362264</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>45.33790740511649</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>6.733342959118931</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>130.1271864573161</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>41.322547741428</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>6.428261642265971</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -4949,7 +3257,7 @@
         <v>89</v>
       </c>
       <c r="M16" t="n">
-        <v>1097.570852315911</v>
+        <v>1097.570852315912</v>
       </c>
       <c r="N16" t="n">
         <v>33.12960688441551</v>
@@ -5033,166 +3341,58 @@
         <v>128</v>
       </c>
       <c r="AO16" t="n">
-        <v>159.8518899786359</v>
+        <v>143.7799995769494</v>
       </c>
       <c r="AP16" t="n">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AQ16" t="n">
-        <v>650.925710907593</v>
+        <v>555.9638330275617</v>
       </c>
       <c r="AR16" t="n">
-        <v>25.51324579326576</v>
+        <v>23.57888532199013</v>
       </c>
       <c r="AS16" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="AU16" t="n">
-        <v>97.14497184753418</v>
+        <v>151.1876088473986</v>
       </c>
       <c r="AV16" t="n">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="AW16" t="n">
-        <v>16.44967802324512</v>
+        <v>709.7551319832503</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.055820265155387</v>
+        <v>26.64122992624872</v>
       </c>
       <c r="AY16" t="n">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="AZ16" t="n">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="BA16" t="n">
-        <v>138.7463108698527</v>
+        <v>123.1079307889189</v>
       </c>
       <c r="BB16" t="n">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="BC16" t="n">
-        <v>88.88142385090059</v>
+        <v>858.4113275289516</v>
       </c>
       <c r="BD16" t="n">
-        <v>9.427694514084585</v>
+        <v>29.29865743560533</v>
       </c>
       <c r="BE16" t="n">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="BF16" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>143.7799995769494</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>145</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>555.9638330275617</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>23.57888532199013</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>162</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>151.1876088473986</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>709.7551319832503</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>26.64122992624872</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>131</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>172</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>123.1079307889189</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>127</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>858.4113275289516</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>29.29865743560533</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>107</v>
-      </c>
-      <c r="BX16" t="n">
         <v>143</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>151.3998498170306</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>152</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>670.68821322316</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>25.89764879720088</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>132</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>172</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>126.0448191960653</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>46.60446166558746</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>6.826746052519272</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>129.6372483571371</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>30.79283573493937</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>5.549129277187491</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -5307,7 +3507,7 @@
         <v>135</v>
       </c>
       <c r="AK17" t="n">
-        <v>191.9840746667649</v>
+        <v>191.9840746667648</v>
       </c>
       <c r="AL17" t="n">
         <v>13.85583179267</v>
@@ -5319,166 +3519,58 @@
         <v>149</v>
       </c>
       <c r="AO17" t="n">
-        <v>162.6274754888716</v>
+        <v>147.9725437770045</v>
       </c>
       <c r="AP17" t="n">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="AQ17" t="n">
-        <v>724.4928196458791</v>
+        <v>700.1566906548238</v>
       </c>
       <c r="AR17" t="n">
-        <v>26.91640428522872</v>
+        <v>26.46047411999308</v>
       </c>
       <c r="AS17" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AT17" t="n">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="AU17" t="n">
-        <v>103.2968440476513</v>
+        <v>154.1458896723156</v>
       </c>
       <c r="AV17" t="n">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="AW17" t="n">
-        <v>60.78485856456383</v>
+        <v>796.2895969594857</v>
       </c>
       <c r="AX17" t="n">
-        <v>7.796464491329633</v>
+        <v>28.21860373865946</v>
       </c>
       <c r="AY17" t="n">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AZ17" t="n">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="BA17" t="n">
-        <v>149.7417166426963</v>
+        <v>131.361827250877</v>
       </c>
       <c r="BB17" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="BC17" t="n">
-        <v>251.0304672848572</v>
+        <v>1672.849836309858</v>
       </c>
       <c r="BD17" t="n">
-        <v>15.84394102756184</v>
+        <v>40.90048699355373</v>
       </c>
       <c r="BE17" t="n">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="BF17" t="n">
         <v>161</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>147.9725437770045</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>151</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>700.1566906548238</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>26.46047411999308</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>134</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>168</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>154.1458896723156</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>158</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>796.2895969594857</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>28.21860373865946</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>138</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>175</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>131.361827250877</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>133</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>1672.849836309858</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>40.90048699355373</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>111</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>161</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>154.9050826670551</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>159</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>783.8468467039286</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>27.99726498613621</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>139</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>176</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>117.8986150616364</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>121</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>144.9803849716564</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>12.0407800815253</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>110</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>138.1891388170051</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>141</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>111.7593856376652</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>10.57163117204082</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -5605,166 +3697,58 @@
         <v>128</v>
       </c>
       <c r="AO18" t="n">
-        <v>165.045226295364</v>
+        <v>150.3260534665408</v>
       </c>
       <c r="AP18" t="n">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="AQ18" t="n">
-        <v>584.0208070051149</v>
+        <v>488.3826529768979</v>
       </c>
       <c r="AR18" t="n">
-        <v>24.16652244335364</v>
+        <v>22.09938128040914</v>
       </c>
       <c r="AS18" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="AT18" t="n">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="AU18" t="n">
-        <v>97.27177492777507</v>
+        <v>156.6562106670862</v>
       </c>
       <c r="AV18" t="n">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="AW18" t="n">
-        <v>17.96713811906099</v>
+        <v>646.9986079820511</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.23876610808629</v>
+        <v>25.43616732100281</v>
       </c>
       <c r="AY18" t="n">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="AZ18" t="n">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="BA18" t="n">
-        <v>138.4654919306437</v>
+        <v>136.0877451751626</v>
       </c>
       <c r="BB18" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BC18" t="n">
-        <v>75.83868600385888</v>
+        <v>847.1593870019826</v>
       </c>
       <c r="BD18" t="n">
-        <v>8.708540980202073</v>
+        <v>29.10600259400082</v>
       </c>
       <c r="BE18" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="BF18" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>150.3260534665408</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>488.3826529768979</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>22.09938128040914</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>140</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>163</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>156.6562106670862</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>157</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>646.9986079820511</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>25.43616732100281</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>143</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>171</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>136.0877451751626</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>139</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>847.1593870019826</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>29.10600259400082</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>124</v>
-      </c>
-      <c r="BX18" t="n">
         <v>153</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>157.3742395636669</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>158</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>603.0285125064859</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>24.55663886826709</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>144</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>171</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>126.2380634943644</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>39.12484782414402</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>6.254985837245679</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>129.7914355595907</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>33.31207421048003</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>5.771661304206964</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -5792,7 +3776,7 @@
         <v>13.28722392017173</v>
       </c>
       <c r="H19" t="n">
-        <v>3.645164457218868</v>
+        <v>3.645164457218869</v>
       </c>
       <c r="I19" t="n">
         <v>17</v>
@@ -5801,7 +3785,7 @@
         <v>21</v>
       </c>
       <c r="K19" t="n">
-        <v>90.37717364073947</v>
+        <v>90.37717364073949</v>
       </c>
       <c r="L19" t="n">
         <v>90</v>
@@ -5891,166 +3875,58 @@
         <v>128</v>
       </c>
       <c r="AO19" t="n">
-        <v>172.6097367466602</v>
+        <v>156.6473451762075</v>
       </c>
       <c r="AP19" t="n">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="AQ19" t="n">
-        <v>573.989907311463</v>
+        <v>531.1120771038178</v>
       </c>
       <c r="AR19" t="n">
-        <v>23.95808647015581</v>
+        <v>23.04586898131242</v>
       </c>
       <c r="AS19" t="n">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AT19" t="n">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="AU19" t="n">
-        <v>98.1484473546346</v>
+        <v>164.6087317898809</v>
       </c>
       <c r="AV19" t="n">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="AW19" t="n">
-        <v>25.27860126386318</v>
+        <v>631.242624142716</v>
       </c>
       <c r="AX19" t="n">
-        <v>5.027782937226227</v>
+        <v>25.1245422673273</v>
       </c>
       <c r="AY19" t="n">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="AZ19" t="n">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="BA19" t="n">
-        <v>141.2185643513997</v>
+        <v>137.9827778365472</v>
       </c>
       <c r="BB19" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BC19" t="n">
-        <v>150.7743432971893</v>
+        <v>845.5971709815626</v>
       </c>
       <c r="BD19" t="n">
-        <v>12.27902045348851</v>
+        <v>29.07915354651099</v>
       </c>
       <c r="BE19" t="n">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="BF19" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>156.6473451762075</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>161</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>531.1120771038178</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>23.04586898131242</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>145</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>173</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>164.6087317898809</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>170</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>631.242624142716</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>25.1245422673273</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>182</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>137.9827778365472</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>139</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>845.5971709815626</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>29.07915354651099</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>120</v>
-      </c>
-      <c r="BX19" t="n">
         <v>157</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>164.8959850843257</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>170</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>613.2283322755437</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>24.76344750384211</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>152</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>182</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>124.3725884755452</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>73.07829577324392</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>8.548584430959545</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>131.0718037287394</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>50.01187780150411</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>7.071907649390234</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/GA/GA_merge_data.xlsx
+++ b/stage2_excels/GA/GA_merge_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF19"/>
+  <dimension ref="A1:BX19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,6 +724,96 @@
           <t>xyz_z_75</t>
         </is>
       </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -902,6 +992,60 @@
       <c r="BF2" t="n">
         <v>50</v>
       </c>
+      <c r="BG2" t="n">
+        <v>69.97129509581187</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>63</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1205.85327851328</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>34.72539817645408</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>47</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>85</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>119.1857191406426</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>130.6443139480517</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>11.42997436340308</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>111</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>141.4154584426911</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>275.5525333936407</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>16.59977510069461</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1080,6 +1224,60 @@
       <c r="BF3" t="n">
         <v>53</v>
       </c>
+      <c r="BG3" t="n">
+        <v>65.32000986781715</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>54</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1554.67485639792</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>39.42936540698975</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>38</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>86</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>126.088028271993</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>36.09171766507369</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>6.007638276816747</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>130.9728139241537</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>82.59342989819632</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>9.088092753608777</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1258,6 +1456,60 @@
       <c r="BF4" t="n">
         <v>43</v>
       </c>
+      <c r="BG4" t="n">
+        <v>69.82749431715365</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>62</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1131.780086437595</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>33.64193939768626</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>47</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>86</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>119.1706267009532</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>140.8683125413667</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>11.86879574941648</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>109</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>139.8080439194962</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>235.6229570217146</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>15.35001488669358</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1436,6 +1688,60 @@
       <c r="BF5" t="n">
         <v>34</v>
       </c>
+      <c r="BG5" t="n">
+        <v>71.54639323103399</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>66</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1272.606619256486</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>35.67361236623628</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>47</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>90</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>118.0092790467851</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>191.6864400380452</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>13.84508721670056</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>106</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>142.4714237472749</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>382.7622217372686</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>19.56430989678064</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1614,6 +1920,60 @@
       <c r="BF6" t="n">
         <v>44</v>
       </c>
+      <c r="BG6" t="n">
+        <v>72.82136670404169</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>66</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1086.084923268611</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>32.95580257357739</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>48</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>90</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>125.6385803222656</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>56.4764988735939</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>7.515084754917532</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>131.1469297409058</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>93.63746895053286</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>9.676645542259614</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1792,6 +2152,60 @@
       <c r="BF7" t="n">
         <v>86</v>
       </c>
+      <c r="BG7" t="n">
+        <v>88.82008592357541</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>826.5811705849128</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>28.75032470399096</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>65</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>110</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>116.8296035844991</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>118</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>141.7173508056759</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>11.90450968354749</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>107</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>141.7083462735575</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>143</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>200.004844729019</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>14.14230690973078</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1970,6 +2384,60 @@
       <c r="BF8" t="n">
         <v>121</v>
       </c>
+      <c r="BG8" t="n">
+        <v>127.9930184696415</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>121</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1474.238022030635</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>38.39580734963956</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>94</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>164</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>116.370115283845</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>224.3214711505171</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>14.97736529402008</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>104</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>139.649122155822</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>214.4875230554002</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>14.64539255381706</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2148,6 +2616,60 @@
       <c r="BF9" t="n">
         <v>103</v>
       </c>
+      <c r="BG9" t="n">
+        <v>117.4520811956279</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>117</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>780.2514096399237</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>27.932980679475</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>96</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>136</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>125.4886566797892</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>64.01310769281541</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>8.000819188859063</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>130.5319089889526</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>58.84541545595001</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>7.671076551302953</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2326,6 +2848,60 @@
       <c r="BF10" t="n">
         <v>119</v>
       </c>
+      <c r="BG10" t="n">
+        <v>135.0340774868683</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>132</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1133.373841594867</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>33.66561809316543</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>106</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>162</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>124.3918892542521</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>105.6732123504673</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>10.27974767931914</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>131.5215199788412</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>97.3456570890782</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>9.866390276543807</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2504,6 +3080,60 @@
       <c r="BF11" t="n">
         <v>124</v>
       </c>
+      <c r="BG11" t="n">
+        <v>137.0639757846268</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>137</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>888.5537392587412</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>29.80861853992468</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>114</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>160</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>116.2826135105205</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>219.7868331843283</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>14.82520938079218</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>104</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>139.2445594457222</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>185.1543159579124</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>13.60714209369155</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2682,6 +3312,60 @@
       <c r="BF12" t="n">
         <v>152</v>
       </c>
+      <c r="BG12" t="n">
+        <v>156.5852682654553</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>159</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>807.3982340355473</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>28.41475380916659</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>133</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>178</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>116.5739208495892</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>201.1173043922009</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>14.18158328227849</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>107</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>139.287203581003</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>151.6190122722358</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>12.31336721909307</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2860,6 +3544,60 @@
       <c r="BF13" t="n">
         <v>138</v>
       </c>
+      <c r="BG13" t="n">
+        <v>149.8006256499033</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>149</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>681.7126418030423</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>26.10962737771342</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>130</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>168</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>125.3196557362874</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>79.29437642872357</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>8.904738987119362</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>130.5768473943075</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>59.85146358300949</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>7.736372766549547</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3038,6 +3776,60 @@
       <c r="BF14" t="n">
         <v>144</v>
       </c>
+      <c r="BG14" t="n">
+        <v>157.7213024228718</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>153</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>627.2485987559955</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>25.04493159814967</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>140</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>177</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>124.4005651473999</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>77.60302075553871</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>8.809257673353567</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>131.3976256052653</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>64.62705076382015</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>8.039095145837008</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3216,6 +4008,60 @@
       <c r="BF15" t="n">
         <v>150</v>
       </c>
+      <c r="BG15" t="n">
+        <v>154.178888702525</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>154</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>669.1862034419659</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>25.86863358281542</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>134</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>172</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>125.8896697362264</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>45.33790740511649</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>6.733342959118931</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>130.1271864573161</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>41.322547741428</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>6.428261642265971</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3394,6 +4240,60 @@
       <c r="BF16" t="n">
         <v>143</v>
       </c>
+      <c r="BG16" t="n">
+        <v>151.3998498170306</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>152</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>670.68821322316</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>25.89764879720088</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>132</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>172</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>126.0448191960653</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>46.60446166558746</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>6.826746052519272</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>129.6372483571371</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>30.79283573493937</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>5.549129277187491</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3572,6 +4472,60 @@
       <c r="BF17" t="n">
         <v>161</v>
       </c>
+      <c r="BG17" t="n">
+        <v>154.9050826670551</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>159</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>783.8468467039286</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>27.99726498613621</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>139</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>176</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>117.8986150616364</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>121</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>144.9803849716564</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>12.0407800815253</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>110</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>138.1891388170051</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>141</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>111.7593856376652</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>10.57163117204082</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3750,6 +4704,60 @@
       <c r="BF18" t="n">
         <v>153</v>
       </c>
+      <c r="BG18" t="n">
+        <v>157.3742395636669</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>158</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>603.0285125064859</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>24.55663886826709</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>144</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>171</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>126.2380634943644</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>39.12484782414402</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>6.254985837245679</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>129.7914355595907</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>33.31207421048003</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>5.771661304206964</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3927,6 +4935,60 @@
       </c>
       <c r="BF19" t="n">
         <v>157</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>164.8959850843257</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>170</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>613.2283322755437</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>24.76344750384211</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>152</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>182</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>124.3725884755452</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>73.07829577324392</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>8.548584430959545</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>131.0718037287394</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>50.01187780150411</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>7.071907649390234</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/GA/GA_merge_data.xlsx
+++ b/stage2_excels/GA/GA_merge_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX19"/>
+  <dimension ref="A1:BF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,92 +546,92 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_75</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_75</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
@@ -722,96 +722,6 @@
       <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>xyz_z_75</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_mean</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_median</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_25</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_75</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_25</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_75</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_25</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
         </is>
       </c>
     </row>
@@ -885,58 +795,58 @@
         <v>126</v>
       </c>
       <c r="W2" t="n">
-        <v>76.8094319087438</v>
+        <v>69.97129509581187</v>
       </c>
       <c r="X2" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Y2" t="n">
-        <v>1324.863343019209</v>
+        <v>1205.85327851328</v>
       </c>
       <c r="Z2" t="n">
-        <v>36.3986722700047</v>
+        <v>34.72539817645408</v>
       </c>
       <c r="AA2" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AB2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.5590108736746</v>
+        <v>119.1857191406426</v>
       </c>
       <c r="AD2" t="n">
         <v>128</v>
       </c>
       <c r="AE2" t="n">
-        <v>98.0019057610689</v>
+        <v>130.6443139480517</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.899591191613364</v>
+        <v>11.42997436340308</v>
       </c>
       <c r="AG2" t="n">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="AH2" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AI2" t="n">
-        <v>139.4517426950389</v>
+        <v>141.4154584426911</v>
       </c>
       <c r="AJ2" t="n">
         <v>128</v>
       </c>
       <c r="AK2" t="n">
-        <v>214.5271002383554</v>
+        <v>275.5525333936407</v>
       </c>
       <c r="AL2" t="n">
-        <v>14.64674367353902</v>
+        <v>16.59977510069461</v>
       </c>
       <c r="AM2" t="n">
         <v>128</v>
       </c>
       <c r="AN2" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AO2" t="n">
         <v>69.84467592867934</v>
@@ -991,60 +901,6 @@
       </c>
       <c r="BF2" t="n">
         <v>50</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>69.97129509581187</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>63</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1205.85327851328</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>34.72539817645408</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>47</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>85</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>119.1857191406426</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>130.6443139480517</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>11.42997436340308</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>111</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>141.4154584426911</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>275.5525333936407</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>16.59977510069461</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -1117,34 +973,34 @@
         <v>118</v>
       </c>
       <c r="W3" t="n">
-        <v>71.06647007527079</v>
+        <v>65.32000986781715</v>
       </c>
       <c r="X3" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y3" t="n">
-        <v>1734.796498518152</v>
+        <v>1554.67485639792</v>
       </c>
       <c r="Z3" t="n">
-        <v>41.65088832807953</v>
+        <v>39.42936540698975</v>
       </c>
       <c r="AA3" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.6823619206747</v>
+        <v>126.088028271993</v>
       </c>
       <c r="AD3" t="n">
         <v>128</v>
       </c>
       <c r="AE3" t="n">
-        <v>30.17885655664562</v>
+        <v>36.09171766507369</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.493528607065373</v>
+        <v>6.007638276816747</v>
       </c>
       <c r="AG3" t="n">
         <v>128</v>
@@ -1153,16 +1009,16 @@
         <v>128</v>
       </c>
       <c r="AI3" t="n">
-        <v>130.4937912623087</v>
+        <v>130.9728139241537</v>
       </c>
       <c r="AJ3" t="n">
         <v>128</v>
       </c>
       <c r="AK3" t="n">
-        <v>60.98640401749395</v>
+        <v>82.59342989819632</v>
       </c>
       <c r="AL3" t="n">
-        <v>7.80937923381199</v>
+        <v>9.088092753608777</v>
       </c>
       <c r="AM3" t="n">
         <v>128</v>
@@ -1223,60 +1079,6 @@
       </c>
       <c r="BF3" t="n">
         <v>53</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>65.32000986781715</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>54</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1554.67485639792</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>39.42936540698975</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>38</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>86</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>126.088028271993</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>36.09171766507369</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>6.007638276816747</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>130.9728139241537</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>82.59342989819632</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>9.088092753608777</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -1349,52 +1151,52 @@
         <v>122</v>
       </c>
       <c r="W4" t="n">
-        <v>76.80287897830232</v>
+        <v>69.82749431715365</v>
       </c>
       <c r="X4" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="n">
-        <v>1261.320653673225</v>
+        <v>1131.780086437595</v>
       </c>
       <c r="Z4" t="n">
-        <v>35.51507642781055</v>
+        <v>33.64193939768626</v>
       </c>
       <c r="AA4" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AB4" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.1778035250626</v>
+        <v>119.1706267009532</v>
       </c>
       <c r="AD4" t="n">
         <v>128</v>
       </c>
       <c r="AE4" t="n">
-        <v>76.60247623776777</v>
+        <v>140.8683125413667</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.752284058334018</v>
+        <v>11.86879574941648</v>
       </c>
       <c r="AG4" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="AH4" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AI4" t="n">
-        <v>139.3416045328188</v>
+        <v>139.8080439194962</v>
       </c>
       <c r="AJ4" t="n">
         <v>128</v>
       </c>
       <c r="AK4" t="n">
-        <v>224.8627104833766</v>
+        <v>235.6229570217146</v>
       </c>
       <c r="AL4" t="n">
-        <v>14.99542298447685</v>
+        <v>15.35001488669358</v>
       </c>
       <c r="AM4" t="n">
         <v>128</v>
@@ -1455,60 +1257,6 @@
       </c>
       <c r="BF4" t="n">
         <v>43</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>69.82749431715365</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>62</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>1131.780086437595</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>33.64193939768626</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>47</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>86</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>119.1706267009532</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>140.8683125413667</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>11.86879574941648</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>109</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>139.8080439194962</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>235.6229570217146</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>15.35001488669358</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>153</v>
       </c>
     </row>
     <row r="5">
@@ -1581,58 +1329,58 @@
         <v>139</v>
       </c>
       <c r="W5" t="n">
-        <v>80.06948433754687</v>
+        <v>71.54639323103399</v>
       </c>
       <c r="X5" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.578761691438</v>
+        <v>1272.606619256486</v>
       </c>
       <c r="Z5" t="n">
-        <v>37.71708845724227</v>
+        <v>35.67361236623628</v>
       </c>
       <c r="AA5" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AB5" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.9952400501239</v>
+        <v>118.0092790467851</v>
       </c>
       <c r="AD5" t="n">
         <v>128</v>
       </c>
       <c r="AE5" t="n">
-        <v>132.3262784868874</v>
+        <v>191.6864400380452</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.50331597787731</v>
+        <v>13.84508721670056</v>
       </c>
       <c r="AG5" t="n">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="AH5" t="n">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="AI5" t="n">
-        <v>140.686441716065</v>
+        <v>142.4714237472749</v>
       </c>
       <c r="AJ5" t="n">
         <v>128</v>
       </c>
       <c r="AK5" t="n">
-        <v>298.9991289887977</v>
+        <v>382.7622217372686</v>
       </c>
       <c r="AL5" t="n">
-        <v>17.29159127983303</v>
+        <v>19.56430989678064</v>
       </c>
       <c r="AM5" t="n">
         <v>128</v>
       </c>
       <c r="AN5" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AO5" t="n">
         <v>71.83136792936018</v>
@@ -1687,60 +1435,6 @@
       </c>
       <c r="BF5" t="n">
         <v>34</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>71.54639323103399</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>66</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1272.606619256486</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>35.67361236623628</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>47</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>90</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>118.0092790467851</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>191.6864400380452</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>13.84508721670056</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>106</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>142.4714237472749</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>382.7622217372686</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>19.56430989678064</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>159</v>
       </c>
     </row>
     <row r="6">
@@ -1813,34 +1507,34 @@
         <v>125</v>
       </c>
       <c r="W6" t="n">
-        <v>80.51674696697046</v>
+        <v>72.82136670404169</v>
       </c>
       <c r="X6" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Y6" t="n">
-        <v>1209.820057411409</v>
+        <v>1086.084923268611</v>
       </c>
       <c r="Z6" t="n">
-        <v>34.78246767282921</v>
+        <v>32.95580257357739</v>
       </c>
       <c r="AA6" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.632911046346</v>
+        <v>125.6385803222656</v>
       </c>
       <c r="AD6" t="n">
         <v>128</v>
       </c>
       <c r="AE6" t="n">
-        <v>29.99315694990172</v>
+        <v>56.4764988735939</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.476600857274676</v>
+        <v>7.515084754917532</v>
       </c>
       <c r="AG6" t="n">
         <v>128</v>
@@ -1849,16 +1543,16 @@
         <v>128</v>
       </c>
       <c r="AI6" t="n">
-        <v>131.0325415929159</v>
+        <v>131.1469297409058</v>
       </c>
       <c r="AJ6" t="n">
         <v>128</v>
       </c>
       <c r="AK6" t="n">
-        <v>89.22363466096171</v>
+        <v>93.63746895053286</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.445826309061674</v>
+        <v>9.676645542259614</v>
       </c>
       <c r="AM6" t="n">
         <v>128</v>
@@ -1919,60 +1613,6 @@
       </c>
       <c r="BF6" t="n">
         <v>44</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>72.82136670404169</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>66</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>1086.084923268611</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>32.95580257357739</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>48</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>90</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>125.6385803222656</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>56.4764988735939</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>7.515084754917532</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>131.1469297409058</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>93.63746895053286</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>9.676645542259614</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -2045,58 +1685,58 @@
         <v>138</v>
       </c>
       <c r="W7" t="n">
-        <v>96.95614446287463</v>
+        <v>88.82008592357541</v>
       </c>
       <c r="X7" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>889.2350799783887</v>
+        <v>826.5811705849128</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.82004493588816</v>
+        <v>28.75032470399096</v>
       </c>
       <c r="AA7" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.1355091151623</v>
+        <v>116.8296035844991</v>
       </c>
       <c r="AD7" t="n">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AE7" t="n">
-        <v>55.36648661445502</v>
+        <v>141.7173508056759</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.440865985519093</v>
+        <v>11.90450968354749</v>
       </c>
       <c r="AG7" t="n">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AH7" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AI7" t="n">
-        <v>142.0850141943428</v>
+        <v>141.7083462735575</v>
       </c>
       <c r="AJ7" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AK7" t="n">
-        <v>221.2286353633788</v>
+        <v>200.004844729019</v>
       </c>
       <c r="AL7" t="n">
-        <v>14.87375659890193</v>
+        <v>14.14230690973078</v>
       </c>
       <c r="AM7" t="n">
         <v>128</v>
       </c>
       <c r="AN7" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AO7" t="n">
         <v>86.45874844173372</v>
@@ -2151,60 +1791,6 @@
       </c>
       <c r="BF7" t="n">
         <v>86</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>88.82008592357541</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>90</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>826.5811705849128</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>28.75032470399096</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>65</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>110</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>116.8296035844991</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>118</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>141.7173508056759</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>11.90450968354749</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>107</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>141.7083462735575</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>143</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>200.004844729019</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>14.14230690973078</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>154</v>
       </c>
     </row>
     <row r="8">
@@ -2277,58 +1863,58 @@
         <v>186</v>
       </c>
       <c r="W8" t="n">
-        <v>137.4372029253141</v>
+        <v>127.9930184696415</v>
       </c>
       <c r="X8" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.265724009274</v>
+        <v>1474.238022030635</v>
       </c>
       <c r="Z8" t="n">
-        <v>38.01665061534583</v>
+        <v>38.39580734963956</v>
       </c>
       <c r="AA8" t="n">
+        <v>94</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>164</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>116.370115283845</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>224.3214711505171</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14.97736529402008</v>
+      </c>
+      <c r="AG8" t="n">
         <v>104</v>
       </c>
-      <c r="AB8" t="n">
-        <v>173</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>131.7317829893932</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>128</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>45.31761842844622</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>6.731836185502899</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>128</v>
-      </c>
       <c r="AH8" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AI8" t="n">
-        <v>141.8240599829257</v>
+        <v>139.649122155822</v>
       </c>
       <c r="AJ8" t="n">
         <v>128</v>
       </c>
       <c r="AK8" t="n">
-        <v>308.4955212287041</v>
+        <v>214.4875230554002</v>
       </c>
       <c r="AL8" t="n">
-        <v>17.56404057239405</v>
+        <v>14.64539255381706</v>
       </c>
       <c r="AM8" t="n">
         <v>128</v>
       </c>
       <c r="AN8" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AO8" t="n">
         <v>122.6547753608934</v>
@@ -2383,60 +1969,6 @@
       </c>
       <c r="BF8" t="n">
         <v>121</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>127.9930184696415</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>121</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>1474.238022030635</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>38.39580734963956</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>94</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>164</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>116.370115283845</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>224.3214711505171</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>14.97736529402008</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>104</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>139.649122155822</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>214.4875230554002</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>14.64539255381706</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>153</v>
       </c>
     </row>
     <row r="9">
@@ -2509,34 +2041,34 @@
         <v>160</v>
       </c>
       <c r="W9" t="n">
-        <v>126.7536292661164</v>
+        <v>117.4520811956279</v>
       </c>
       <c r="X9" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="n">
-        <v>809.870508242659</v>
+        <v>780.2514096399237</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.45822391230097</v>
+        <v>27.932980679475</v>
       </c>
       <c r="AA9" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="AB9" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AC9" t="n">
-        <v>128.7880268096924</v>
+        <v>125.4886566797892</v>
       </c>
       <c r="AD9" t="n">
         <v>128</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.35951047165266</v>
+        <v>64.01310769281541</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.059331703436661</v>
+        <v>8.000819188859063</v>
       </c>
       <c r="AG9" t="n">
         <v>128</v>
@@ -2545,16 +2077,16 @@
         <v>128</v>
       </c>
       <c r="AI9" t="n">
-        <v>131.0214172999064</v>
+        <v>130.5319089889526</v>
       </c>
       <c r="AJ9" t="n">
         <v>128</v>
       </c>
       <c r="AK9" t="n">
-        <v>89.84792647433382</v>
+        <v>58.84541545595001</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.478814613354023</v>
+        <v>7.671076551302953</v>
       </c>
       <c r="AM9" t="n">
         <v>128</v>
@@ -2615,60 +2147,6 @@
       </c>
       <c r="BF9" t="n">
         <v>103</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>117.4520811956279</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>117</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>780.2514096399237</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>27.932980679475</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>96</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>136</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>125.4886566797892</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>64.01310769281541</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>8.000819188859063</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>130.5319089889526</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>58.84541545595001</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>7.671076551302953</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -2741,34 +2219,34 @@
         <v>190</v>
       </c>
       <c r="W10" t="n">
-        <v>144.8051322868754</v>
+        <v>135.0340774868683</v>
       </c>
       <c r="X10" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="n">
-        <v>1100.163496513589</v>
+        <v>1133.373841594867</v>
       </c>
       <c r="Z10" t="n">
-        <v>33.16871261465523</v>
+        <v>33.66561809316543</v>
       </c>
       <c r="AA10" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AB10" t="n">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AC10" t="n">
-        <v>129.0541642506917</v>
+        <v>124.3918892542521</v>
       </c>
       <c r="AD10" t="n">
         <v>128</v>
       </c>
       <c r="AE10" t="n">
-        <v>14.68248150189133</v>
+        <v>105.6732123504673</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.831772631810416</v>
+        <v>10.27974767931914</v>
       </c>
       <c r="AG10" t="n">
         <v>128</v>
@@ -2777,16 +2255,16 @@
         <v>128</v>
       </c>
       <c r="AI10" t="n">
-        <v>132.2380870183309</v>
+        <v>131.5215199788412</v>
       </c>
       <c r="AJ10" t="n">
         <v>128</v>
       </c>
       <c r="AK10" t="n">
-        <v>142.8770485118271</v>
+        <v>97.3456570890782</v>
       </c>
       <c r="AL10" t="n">
-        <v>11.95311877761729</v>
+        <v>9.866390276543807</v>
       </c>
       <c r="AM10" t="n">
         <v>128</v>
@@ -2847,60 +2325,6 @@
       </c>
       <c r="BF10" t="n">
         <v>119</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>135.0340774868683</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>132</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>1133.373841594867</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>33.66561809316543</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>106</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>162</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>124.3918892542521</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>105.6732123504673</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>10.27974767931914</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>131.5215199788412</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>97.3456570890782</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>9.866390276543807</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -2973,58 +2397,58 @@
         <v>184</v>
       </c>
       <c r="W11" t="n">
-        <v>146.5916285094976</v>
+        <v>137.0639757846268</v>
       </c>
       <c r="X11" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="n">
-        <v>873.4275803343485</v>
+        <v>888.5537392587412</v>
       </c>
       <c r="Z11" t="n">
-        <v>29.55380822050432</v>
+        <v>29.80861853992468</v>
       </c>
       <c r="AA11" t="n">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AB11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AC11" t="n">
-        <v>131.071958145214</v>
+        <v>116.2826135105205</v>
       </c>
       <c r="AD11" t="n">
         <v>128</v>
       </c>
       <c r="AE11" t="n">
-        <v>33.02615206480694</v>
+        <v>219.7868331843283</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.746838440813082</v>
+        <v>14.82520938079218</v>
       </c>
       <c r="AG11" t="n">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AH11" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AI11" t="n">
-        <v>141.7563577249624</v>
+        <v>139.2445594457222</v>
       </c>
       <c r="AJ11" t="n">
         <v>128</v>
       </c>
       <c r="AK11" t="n">
-        <v>293.7388253969781</v>
+        <v>185.1543159579124</v>
       </c>
       <c r="AL11" t="n">
-        <v>17.13881050122727</v>
+        <v>13.60714209369155</v>
       </c>
       <c r="AM11" t="n">
         <v>128</v>
       </c>
       <c r="AN11" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AO11" t="n">
         <v>130.9820148267857</v>
@@ -3079,60 +2503,6 @@
       </c>
       <c r="BF11" t="n">
         <v>124</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>137.0639757846268</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>137</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>888.5537392587412</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>29.80861853992468</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>114</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>160</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>116.2826135105205</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>219.7868331843283</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>14.82520938079218</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>104</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>139.2445594457222</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>185.1543159579124</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>13.60714209369155</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>152</v>
       </c>
     </row>
     <row r="12">
@@ -3205,58 +2575,58 @@
         <v>201</v>
       </c>
       <c r="W12" t="n">
-        <v>165.0858029450206</v>
+        <v>156.5852682654553</v>
       </c>
       <c r="X12" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="n">
-        <v>764.7867544451664</v>
+        <v>807.3982340355473</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.65477814854363</v>
+        <v>28.41475380916659</v>
       </c>
       <c r="AA12" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AB12" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AC12" t="n">
-        <v>130.8650299143436</v>
+        <v>116.5739208495892</v>
       </c>
       <c r="AD12" t="n">
         <v>128</v>
       </c>
       <c r="AE12" t="n">
-        <v>23.28892137941505</v>
+        <v>201.1173043922009</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.825859651856346</v>
+        <v>14.18158328227849</v>
       </c>
       <c r="AG12" t="n">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AH12" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AI12" t="n">
-        <v>141.0764532159282</v>
+        <v>139.287203581003</v>
       </c>
       <c r="AJ12" t="n">
         <v>128</v>
       </c>
       <c r="AK12" t="n">
-        <v>254.3223245184681</v>
+        <v>151.6190122722358</v>
       </c>
       <c r="AL12" t="n">
-        <v>15.9474864639688</v>
+        <v>12.31336721909307</v>
       </c>
       <c r="AM12" t="n">
         <v>128</v>
       </c>
       <c r="AN12" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AO12" t="n">
         <v>149.6129168635448</v>
@@ -3311,60 +2681,6 @@
       </c>
       <c r="BF12" t="n">
         <v>152</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>156.5852682654553</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>159</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>807.3982340355473</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>28.41475380916659</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>133</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>178</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>116.5739208495892</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>201.1173043922009</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>14.18158328227849</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>107</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>139.287203581003</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>151.6190122722358</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>12.31336721909307</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -3437,34 +2753,34 @@
         <v>194</v>
       </c>
       <c r="W13" t="n">
-        <v>158.8928814169779</v>
+        <v>149.8006256499033</v>
       </c>
       <c r="X13" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="n">
-        <v>647.1024699919737</v>
+        <v>681.7126418030423</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.43820885974431</v>
+        <v>26.10962737771342</v>
       </c>
       <c r="AA13" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AC13" t="n">
-        <v>128.657156308492</v>
+        <v>125.3196557362874</v>
       </c>
       <c r="AD13" t="n">
         <v>128</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.921253356493165</v>
+        <v>79.29437642872357</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.630827504131193</v>
+        <v>8.904738987119362</v>
       </c>
       <c r="AG13" t="n">
         <v>128</v>
@@ -3473,16 +2789,16 @@
         <v>128</v>
       </c>
       <c r="AI13" t="n">
-        <v>131.0600188573202</v>
+        <v>130.5768473943075</v>
       </c>
       <c r="AJ13" t="n">
         <v>128</v>
       </c>
       <c r="AK13" t="n">
-        <v>98.59790714889564</v>
+        <v>59.85146358300949</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.92964788645074</v>
+        <v>7.736372766549547</v>
       </c>
       <c r="AM13" t="n">
         <v>128</v>
@@ -3543,60 +2859,6 @@
       </c>
       <c r="BF13" t="n">
         <v>138</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>149.8006256499033</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>149</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>681.7126418030423</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>26.10962737771342</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>130</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>168</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>125.3196557362874</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>79.29437642872357</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>8.904738987119362</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>130.5768473943075</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>59.85146358300949</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>7.736372766549547</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -3669,34 +2931,34 @@
         <v>197</v>
       </c>
       <c r="W14" t="n">
-        <v>166.2106671141542</v>
+        <v>157.7213024228718</v>
       </c>
       <c r="X14" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="n">
-        <v>595.8945119524445</v>
+        <v>627.2485987559955</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.41095065646655</v>
+        <v>25.04493159814967</v>
       </c>
       <c r="AA14" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AC14" t="n">
-        <v>128.7180465062459</v>
+        <v>124.4005651473999</v>
       </c>
       <c r="AD14" t="n">
         <v>128</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.715693356408589</v>
+        <v>77.60302075553871</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.777713692303184</v>
+        <v>8.809257673353567</v>
       </c>
       <c r="AG14" t="n">
         <v>128</v>
@@ -3705,16 +2967,16 @@
         <v>128</v>
       </c>
       <c r="AI14" t="n">
-        <v>132.1383256912231</v>
+        <v>131.3976256052653</v>
       </c>
       <c r="AJ14" t="n">
         <v>128</v>
       </c>
       <c r="AK14" t="n">
-        <v>102.0829946677996</v>
+        <v>64.62705076382015</v>
       </c>
       <c r="AL14" t="n">
-        <v>10.10361295120709</v>
+        <v>8.039095145837008</v>
       </c>
       <c r="AM14" t="n">
         <v>128</v>
@@ -3775,60 +3037,6 @@
       </c>
       <c r="BF14" t="n">
         <v>144</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>157.7213024228718</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>153</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>627.2485987559955</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>25.04493159814967</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>140</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>177</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>124.4005651473999</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>77.60302075553871</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>8.809257673353567</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>131.3976256052653</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>64.62705076382015</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>8.039095145837008</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -3901,34 +3109,34 @@
         <v>192</v>
       </c>
       <c r="W15" t="n">
-        <v>162.509670812772</v>
+        <v>154.178888702525</v>
       </c>
       <c r="X15" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="n">
-        <v>641.6130835279084</v>
+        <v>669.1862034419659</v>
       </c>
       <c r="Z15" t="n">
-        <v>25.33008258036101</v>
+        <v>25.86863358281542</v>
       </c>
       <c r="AA15" t="n">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AC15" t="n">
-        <v>128.5156453450521</v>
+        <v>125.8896697362264</v>
       </c>
       <c r="AD15" t="n">
         <v>128</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.518984476311306</v>
+        <v>45.33790740511649</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.349251897160308</v>
+        <v>6.733342959118931</v>
       </c>
       <c r="AG15" t="n">
         <v>128</v>
@@ -3937,16 +3145,16 @@
         <v>128</v>
       </c>
       <c r="AI15" t="n">
-        <v>130.4301102956136</v>
+        <v>130.1271864573161</v>
       </c>
       <c r="AJ15" t="n">
         <v>128</v>
       </c>
       <c r="AK15" t="n">
-        <v>59.87280097609599</v>
+        <v>41.322547741428</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.737751674491499</v>
+        <v>6.428261642265971</v>
       </c>
       <c r="AM15" t="n">
         <v>128</v>
@@ -4007,60 +3215,6 @@
       </c>
       <c r="BF15" t="n">
         <v>150</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>154.178888702525</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>154</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>669.1862034419659</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>25.86863358281542</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>134</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>172</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>125.8896697362264</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>45.33790740511649</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>6.733342959118931</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>130.1271864573161</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>41.322547741428</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>6.428261642265971</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -4133,34 +3287,34 @@
         <v>190</v>
       </c>
       <c r="W16" t="n">
-        <v>160.4049934074612</v>
+        <v>151.3998498170306</v>
       </c>
       <c r="X16" t="n">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="n">
-        <v>651.2856690451664</v>
+        <v>670.68821322316</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.52029915665501</v>
+        <v>25.89764879720088</v>
       </c>
       <c r="AA16" t="n">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AB16" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AC16" t="n">
-        <v>128.2343737284342</v>
+        <v>126.0448191960653</v>
       </c>
       <c r="AD16" t="n">
         <v>128</v>
       </c>
       <c r="AE16" t="n">
-        <v>3.715515096980698</v>
+        <v>46.60446166558746</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.927567144610194</v>
+        <v>6.826746052519272</v>
       </c>
       <c r="AG16" t="n">
         <v>128</v>
@@ -4169,16 +3323,16 @@
         <v>128</v>
       </c>
       <c r="AI16" t="n">
-        <v>130.2628606160482</v>
+        <v>129.6372483571371</v>
       </c>
       <c r="AJ16" t="n">
         <v>128</v>
       </c>
       <c r="AK16" t="n">
-        <v>61.63613628098724</v>
+        <v>30.79283573493937</v>
       </c>
       <c r="AL16" t="n">
-        <v>7.850868504884491</v>
+        <v>5.549129277187491</v>
       </c>
       <c r="AM16" t="n">
         <v>128</v>
@@ -4239,60 +3393,6 @@
       </c>
       <c r="BF16" t="n">
         <v>143</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>151.3998498170306</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>152</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>670.68821322316</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>25.89764879720088</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>132</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>172</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>126.0448191960653</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>46.60446166558746</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>6.826746052519272</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>129.6372483571371</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>30.79283573493937</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>5.549129277187491</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -4365,58 +3465,58 @@
         <v>195</v>
       </c>
       <c r="W17" t="n">
-        <v>163.178087180439</v>
+        <v>154.9050826670551</v>
       </c>
       <c r="X17" t="n">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="n">
-        <v>724.2539180164069</v>
+        <v>783.8468467039286</v>
       </c>
       <c r="Z17" t="n">
-        <v>26.911966074897</v>
+        <v>27.99726498613621</v>
       </c>
       <c r="AA17" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AB17" t="n">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AC17" t="n">
-        <v>130.5623641642881</v>
+        <v>117.8986150616364</v>
       </c>
       <c r="AD17" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="AE17" t="n">
-        <v>18.5982240124896</v>
+        <v>144.9803849716564</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.312565827032627</v>
+        <v>12.0407800815253</v>
       </c>
       <c r="AG17" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AI17" t="n">
-        <v>139.6184956125527</v>
+        <v>138.1891388170051</v>
       </c>
       <c r="AJ17" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AK17" t="n">
-        <v>191.9840746667648</v>
+        <v>111.7593856376652</v>
       </c>
       <c r="AL17" t="n">
-        <v>13.85583179267</v>
+        <v>10.57163117204082</v>
       </c>
       <c r="AM17" t="n">
         <v>128</v>
       </c>
       <c r="AN17" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AO17" t="n">
         <v>147.9725437770045</v>
@@ -4471,60 +3571,6 @@
       </c>
       <c r="BF17" t="n">
         <v>161</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>154.9050826670551</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>159</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>783.8468467039286</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>27.99726498613621</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>139</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>176</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>117.8986150616364</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>121</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>144.9803849716564</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>12.0407800815253</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>110</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>138.1891388170051</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>141</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>111.7593856376652</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>10.57163117204082</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -4597,34 +3643,34 @@
         <v>189</v>
       </c>
       <c r="W18" t="n">
-        <v>165.5958084224879</v>
+        <v>157.3742395636669</v>
       </c>
       <c r="X18" t="n">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y18" t="n">
-        <v>583.8408050130148</v>
+        <v>603.0285125064859</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.16279795497647</v>
+        <v>24.55663886826709</v>
       </c>
       <c r="AA18" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AB18" t="n">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AC18" t="n">
-        <v>128.4314804077148</v>
+        <v>126.2380634943644</v>
       </c>
       <c r="AD18" t="n">
         <v>128</v>
       </c>
       <c r="AE18" t="n">
-        <v>5.47033787186956</v>
+        <v>39.12484782414402</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.338875343379711</v>
+        <v>6.254985837245679</v>
       </c>
       <c r="AG18" t="n">
         <v>128</v>
@@ -4633,16 +3679,16 @@
         <v>128</v>
       </c>
       <c r="AI18" t="n">
-        <v>130.0172265370687</v>
+        <v>129.7914355595907</v>
       </c>
       <c r="AJ18" t="n">
         <v>128</v>
       </c>
       <c r="AK18" t="n">
-        <v>51.43393405086377</v>
+        <v>33.31207421048003</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.17174553723595</v>
+        <v>5.771661304206964</v>
       </c>
       <c r="AM18" t="n">
         <v>128</v>
@@ -4703,60 +3749,6 @@
       </c>
       <c r="BF18" t="n">
         <v>153</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>157.3742395636669</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>158</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>603.0285125064859</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>24.55663886826709</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>144</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>171</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>126.2380634943644</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>39.12484782414402</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>6.254985837245679</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>129.7914355595907</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>33.31207421048003</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>5.771661304206964</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -4829,34 +3821,34 @@
         <v>202</v>
       </c>
       <c r="W19" t="n">
-        <v>173.1643312125975</v>
+        <v>164.8959850843257</v>
       </c>
       <c r="X19" t="n">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Y19" t="n">
-        <v>573.5597898938041</v>
+        <v>613.2283322755437</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.94910833191508</v>
+        <v>24.76344750384211</v>
       </c>
       <c r="AA19" t="n">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AB19" t="n">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AC19" t="n">
-        <v>128.414992014567</v>
+        <v>124.3725884755452</v>
       </c>
       <c r="AD19" t="n">
         <v>128</v>
       </c>
       <c r="AE19" t="n">
-        <v>3.815608928870974</v>
+        <v>73.07829577324392</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.95335837184859</v>
+        <v>8.548584430959545</v>
       </c>
       <c r="AG19" t="n">
         <v>128</v>
@@ -4865,16 +3857,16 @@
         <v>128</v>
       </c>
       <c r="AI19" t="n">
-        <v>132.1577447255453</v>
+        <v>131.0718037287394</v>
       </c>
       <c r="AJ19" t="n">
         <v>128</v>
       </c>
       <c r="AK19" t="n">
-        <v>96.0937327056879</v>
+        <v>50.01187780150411</v>
       </c>
       <c r="AL19" t="n">
-        <v>9.802741081232734</v>
+        <v>7.071907649390234</v>
       </c>
       <c r="AM19" t="n">
         <v>128</v>
@@ -4935,60 +3927,6 @@
       </c>
       <c r="BF19" t="n">
         <v>157</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>164.8959850843257</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>170</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>613.2283322755437</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>24.76344750384211</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>152</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>182</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>124.3725884755452</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>73.07829577324392</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>8.548584430959545</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>131.0718037287394</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>50.01187780150411</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>7.071907649390234</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/GA/GA_merge_data.xlsx
+++ b/stage2_excels/GA/GA_merge_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF19"/>
+  <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,16 +759,16 @@
         <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>190.2536461292854</v>
+        <v>190.2538174996167</v>
       </c>
       <c r="L2" t="n">
         <v>210</v>
       </c>
       <c r="M2" t="n">
-        <v>3941.780384081972</v>
+        <v>3941.773818116639</v>
       </c>
       <c r="N2" t="n">
-        <v>62.78359964259752</v>
+        <v>62.78354735212593</v>
       </c>
       <c r="O2" t="n">
         <v>149</v>
@@ -795,16 +795,16 @@
         <v>126</v>
       </c>
       <c r="W2" t="n">
-        <v>69.97129509581187</v>
+        <v>69.97119993814752</v>
       </c>
       <c r="X2" t="n">
         <v>63</v>
       </c>
       <c r="Y2" t="n">
-        <v>1205.85327851328</v>
+        <v>1205.851506677097</v>
       </c>
       <c r="Z2" t="n">
-        <v>34.72539817645408</v>
+        <v>34.7253726643372</v>
       </c>
       <c r="AA2" t="n">
         <v>47</v>
@@ -813,16 +813,16 @@
         <v>85</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.1857191406426</v>
+        <v>119.1856973032141</v>
       </c>
       <c r="AD2" t="n">
         <v>128</v>
       </c>
       <c r="AE2" t="n">
-        <v>130.6443139480517</v>
+        <v>130.6446769170454</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.42997436340308</v>
+        <v>11.4299902413364</v>
       </c>
       <c r="AG2" t="n">
         <v>111</v>
@@ -831,16 +831,16 @@
         <v>128</v>
       </c>
       <c r="AI2" t="n">
-        <v>141.4154584426911</v>
+        <v>141.4155021175482</v>
       </c>
       <c r="AJ2" t="n">
         <v>128</v>
       </c>
       <c r="AK2" t="n">
-        <v>275.5525333936407</v>
+        <v>275.5543068784468</v>
       </c>
       <c r="AL2" t="n">
-        <v>16.59977510069461</v>
+        <v>16.59982851954944</v>
       </c>
       <c r="AM2" t="n">
         <v>128</v>
@@ -849,16 +849,16 @@
         <v>155</v>
       </c>
       <c r="AO2" t="n">
-        <v>69.84467592867934</v>
+        <v>69.84457779733796</v>
       </c>
       <c r="AP2" t="n">
         <v>64</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1051.099273107798</v>
+        <v>1051.09766953871</v>
       </c>
       <c r="AR2" t="n">
-        <v>32.42066120713453</v>
+        <v>32.4206364764591</v>
       </c>
       <c r="AS2" t="n">
         <v>48</v>
@@ -867,16 +867,16 @@
         <v>83</v>
       </c>
       <c r="AU2" t="n">
-        <v>67.50786240201734</v>
+        <v>67.50776427067598</v>
       </c>
       <c r="AV2" t="n">
         <v>59</v>
       </c>
       <c r="AW2" t="n">
-        <v>1237.586356210254</v>
+        <v>1237.58477574755</v>
       </c>
       <c r="AX2" t="n">
-        <v>35.17934559098924</v>
+        <v>35.17932312804711</v>
       </c>
       <c r="AY2" t="n">
         <v>45</v>
@@ -885,16 +885,16 @@
         <v>83</v>
       </c>
       <c r="BA2" t="n">
-        <v>38.50034797194811</v>
+        <v>38.50015762831838</v>
       </c>
       <c r="BB2" t="n">
         <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>1820.435388626038</v>
+        <v>1820.432045812278</v>
       </c>
       <c r="BD2" t="n">
-        <v>42.66656054366273</v>
+        <v>42.66652136994858</v>
       </c>
       <c r="BE2" t="n">
         <v>10</v>
@@ -937,16 +937,16 @@
         <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>192.6455083253305</v>
+        <v>192.6457288254596</v>
       </c>
       <c r="L3" t="n">
         <v>216</v>
       </c>
       <c r="M3" t="n">
-        <v>3790.115078273813</v>
+        <v>3790.1090605525</v>
       </c>
       <c r="N3" t="n">
-        <v>61.56391051804469</v>
+        <v>61.56386164425116</v>
       </c>
       <c r="O3" t="n">
         <v>144</v>
@@ -973,16 +973,16 @@
         <v>118</v>
       </c>
       <c r="W3" t="n">
-        <v>65.32000986781715</v>
+        <v>65.31988652010281</v>
       </c>
       <c r="X3" t="n">
         <v>54</v>
       </c>
       <c r="Y3" t="n">
-        <v>1554.67485639792</v>
+        <v>1554.674433331165</v>
       </c>
       <c r="Z3" t="n">
-        <v>39.42936540698975</v>
+        <v>39.42936004212046</v>
       </c>
       <c r="AA3" t="n">
         <v>38</v>
@@ -991,16 +991,16 @@
         <v>86</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.088028271993</v>
+        <v>126.0880225499471</v>
       </c>
       <c r="AD3" t="n">
         <v>128</v>
       </c>
       <c r="AE3" t="n">
-        <v>36.09171766507369</v>
+        <v>36.09192911657707</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.007638276816747</v>
+        <v>6.007655875345813</v>
       </c>
       <c r="AG3" t="n">
         <v>128</v>
@@ -1009,16 +1009,16 @@
         <v>128</v>
       </c>
       <c r="AI3" t="n">
-        <v>130.9728139241537</v>
+        <v>130.9728275934855</v>
       </c>
       <c r="AJ3" t="n">
         <v>128</v>
       </c>
       <c r="AK3" t="n">
-        <v>82.59342989819632</v>
+        <v>82.59417673244771</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.088092753608777</v>
+        <v>9.088133842128851</v>
       </c>
       <c r="AM3" t="n">
         <v>128</v>
@@ -1027,16 +1027,16 @@
         <v>128</v>
       </c>
       <c r="AO3" t="n">
-        <v>65.24523246741326</v>
+        <v>65.2451263310079</v>
       </c>
       <c r="AP3" t="n">
         <v>55</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1351.454530809278</v>
+        <v>1351.452577736703</v>
       </c>
       <c r="AR3" t="n">
-        <v>36.76213447025727</v>
+        <v>36.76210790660272</v>
       </c>
       <c r="AS3" t="n">
         <v>41</v>
@@ -1045,16 +1045,16 @@
         <v>83</v>
       </c>
       <c r="AU3" t="n">
-        <v>63.01972129153663</v>
+        <v>63.01962089223426</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>1595.557575890744</v>
+        <v>1595.556240227124</v>
       </c>
       <c r="AX3" t="n">
-        <v>39.94443109985101</v>
+        <v>39.94441438082581</v>
       </c>
       <c r="AY3" t="n">
         <v>35</v>
@@ -1063,16 +1063,16 @@
         <v>85</v>
       </c>
       <c r="BA3" t="n">
-        <v>37.29771920146192</v>
+        <v>37.29748646691721</v>
       </c>
       <c r="BB3" t="n">
         <v>17</v>
       </c>
       <c r="BC3" t="n">
-        <v>1903.157076364233</v>
+        <v>1903.156240851985</v>
       </c>
       <c r="BD3" t="n">
-        <v>43.62518855391038</v>
+        <v>43.6251789778791</v>
       </c>
       <c r="BE3" t="n">
         <v>7</v>
@@ -1115,16 +1115,16 @@
         <v>16</v>
       </c>
       <c r="K4" t="n">
-        <v>198.455236982158</v>
+        <v>198.4554025110228</v>
       </c>
       <c r="L4" t="n">
         <v>216</v>
       </c>
       <c r="M4" t="n">
-        <v>3065.355921092033</v>
+        <v>3065.350939921678</v>
       </c>
       <c r="N4" t="n">
-        <v>55.36565651278809</v>
+        <v>55.36561152847206</v>
       </c>
       <c r="O4" t="n">
         <v>169</v>
@@ -1151,16 +1151,16 @@
         <v>122</v>
       </c>
       <c r="W4" t="n">
-        <v>69.82749431715365</v>
+        <v>69.82739020393795</v>
       </c>
       <c r="X4" t="n">
         <v>62</v>
       </c>
       <c r="Y4" t="n">
-        <v>1131.780086437595</v>
+        <v>1131.778434272783</v>
       </c>
       <c r="Z4" t="n">
-        <v>33.64193939768626</v>
+        <v>33.64191484254104</v>
       </c>
       <c r="AA4" t="n">
         <v>47</v>
@@ -1169,16 +1169,16 @@
         <v>86</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.1706267009532</v>
+        <v>119.1706131558438</v>
       </c>
       <c r="AD4" t="n">
         <v>128</v>
       </c>
       <c r="AE4" t="n">
-        <v>140.8683125413667</v>
+        <v>140.8686787137252</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.86879574941648</v>
+        <v>11.8688111752494</v>
       </c>
       <c r="AG4" t="n">
         <v>109</v>
@@ -1187,16 +1187,16 @@
         <v>128</v>
       </c>
       <c r="AI4" t="n">
-        <v>139.8080439194962</v>
+        <v>139.8080855967558</v>
       </c>
       <c r="AJ4" t="n">
         <v>128</v>
       </c>
       <c r="AK4" t="n">
-        <v>235.6229570217146</v>
+        <v>235.6245984335102</v>
       </c>
       <c r="AL4" t="n">
-        <v>15.35001488669358</v>
+        <v>15.35006835273088</v>
       </c>
       <c r="AM4" t="n">
         <v>128</v>
@@ -1205,16 +1205,16 @@
         <v>153</v>
       </c>
       <c r="AO4" t="n">
-        <v>69.01037909604941</v>
+        <v>69.01028985615024</v>
       </c>
       <c r="AP4" t="n">
         <v>63</v>
       </c>
       <c r="AQ4" t="n">
-        <v>982.8686897915128</v>
+        <v>982.8668969224806</v>
       </c>
       <c r="AR4" t="n">
-        <v>31.35073667063523</v>
+        <v>31.35070807689167</v>
       </c>
       <c r="AS4" t="n">
         <v>47</v>
@@ -1223,16 +1223,16 @@
         <v>83</v>
       </c>
       <c r="AU4" t="n">
-        <v>67.80413329466271</v>
+        <v>67.80405149142182</v>
       </c>
       <c r="AV4" t="n">
         <v>59</v>
       </c>
       <c r="AW4" t="n">
-        <v>1163.205789161181</v>
+        <v>1163.204683751751</v>
       </c>
       <c r="AX4" t="n">
-        <v>34.10580286639183</v>
+        <v>34.10578666079629</v>
       </c>
       <c r="AY4" t="n">
         <v>45</v>
@@ -1241,16 +1241,16 @@
         <v>85</v>
       </c>
       <c r="BA4" t="n">
-        <v>35.05649613863718</v>
+        <v>35.0563225942408</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>1497.040851274913</v>
+        <v>1497.038966824024</v>
       </c>
       <c r="BD4" t="n">
-        <v>38.69161215657618</v>
+        <v>38.6915878043797</v>
       </c>
       <c r="BE4" t="n">
         <v>10</v>
@@ -1293,16 +1293,16 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>215.9487159856732</v>
+        <v>215.9487987518855</v>
       </c>
       <c r="L5" t="n">
         <v>240</v>
       </c>
       <c r="M5" t="n">
-        <v>2602.925636473632</v>
+        <v>2602.918427742232</v>
       </c>
       <c r="N5" t="n">
-        <v>51.01887529604736</v>
+        <v>51.01880464830818</v>
       </c>
       <c r="O5" t="n">
         <v>198</v>
@@ -1329,16 +1329,16 @@
         <v>139</v>
       </c>
       <c r="W5" t="n">
-        <v>71.54639323103399</v>
+        <v>71.54635840281904</v>
       </c>
       <c r="X5" t="n">
         <v>66</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.606619256486</v>
+        <v>1272.606282399584</v>
       </c>
       <c r="Z5" t="n">
-        <v>35.67361236623628</v>
+        <v>35.67360764486239</v>
       </c>
       <c r="AA5" t="n">
         <v>47</v>
@@ -1347,16 +1347,16 @@
         <v>90</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.0092790467851</v>
+        <v>118.009269114704</v>
       </c>
       <c r="AD5" t="n">
         <v>128</v>
       </c>
       <c r="AE5" t="n">
-        <v>191.6864400380452</v>
+        <v>191.686599135565</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.84508721670056</v>
+        <v>13.84509296233019</v>
       </c>
       <c r="AG5" t="n">
         <v>106</v>
@@ -1365,16 +1365,16 @@
         <v>128</v>
       </c>
       <c r="AI5" t="n">
-        <v>142.4714237472749</v>
+        <v>142.4714378177231</v>
       </c>
       <c r="AJ5" t="n">
         <v>128</v>
       </c>
       <c r="AK5" t="n">
-        <v>382.7622217372686</v>
+        <v>382.762697625779</v>
       </c>
       <c r="AL5" t="n">
-        <v>19.56430989678064</v>
+        <v>19.56432205893623</v>
       </c>
       <c r="AM5" t="n">
         <v>128</v>
@@ -1383,16 +1383,16 @@
         <v>159</v>
       </c>
       <c r="AO5" t="n">
-        <v>71.83136792936018</v>
+        <v>71.83132900370818</v>
       </c>
       <c r="AP5" t="n">
         <v>68</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1097.46186049381</v>
+        <v>1097.462140330817</v>
       </c>
       <c r="AR5" t="n">
-        <v>33.12796191276804</v>
+        <v>33.12796613634494</v>
       </c>
       <c r="AS5" t="n">
         <v>49</v>
@@ -1401,16 +1401,16 @@
         <v>88</v>
       </c>
       <c r="AU5" t="n">
-        <v>68.69070906148204</v>
+        <v>68.69066808711152</v>
       </c>
       <c r="AV5" t="n">
         <v>62</v>
       </c>
       <c r="AW5" t="n">
-        <v>1313.593765679035</v>
+        <v>1313.593961592954</v>
       </c>
       <c r="AX5" t="n">
-        <v>36.24353412236498</v>
+        <v>36.24353682510792</v>
       </c>
       <c r="AY5" t="n">
         <v>44</v>
@@ -1419,16 +1419,16 @@
         <v>88</v>
       </c>
       <c r="BA5" t="n">
-        <v>29.50337862756829</v>
+        <v>29.50329052509077</v>
       </c>
       <c r="BB5" t="n">
         <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>1506.231396913224</v>
+        <v>1506.228967511528</v>
       </c>
       <c r="BD5" t="n">
-        <v>38.81019707387769</v>
+        <v>38.81016577536778</v>
       </c>
       <c r="BE5" t="n">
         <v>8</v>
@@ -1471,16 +1471,16 @@
         <v>16</v>
       </c>
       <c r="K6" t="n">
-        <v>200.7913729294227</v>
+        <v>200.7916787662727</v>
       </c>
       <c r="L6" t="n">
         <v>207</v>
       </c>
       <c r="M6" t="n">
-        <v>2056.137428214971</v>
+        <v>2056.125300634302</v>
       </c>
       <c r="N6" t="n">
-        <v>45.34465159437187</v>
+        <v>45.34451786748098</v>
       </c>
       <c r="O6" t="n">
         <v>173</v>
@@ -1507,16 +1507,16 @@
         <v>125</v>
       </c>
       <c r="W6" t="n">
-        <v>72.82136670404169</v>
+        <v>72.82118950362496</v>
       </c>
       <c r="X6" t="n">
         <v>66</v>
       </c>
       <c r="Y6" t="n">
-        <v>1086.084923268611</v>
+        <v>1086.082256916403</v>
       </c>
       <c r="Z6" t="n">
-        <v>32.95580257357739</v>
+        <v>32.95576212009674</v>
       </c>
       <c r="AA6" t="n">
         <v>48</v>
@@ -1525,16 +1525,16 @@
         <v>90</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.6385803222656</v>
+        <v>125.6385730107625</v>
       </c>
       <c r="AD6" t="n">
         <v>128</v>
       </c>
       <c r="AE6" t="n">
-        <v>56.4764988735939</v>
+        <v>56.47679336012524</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.515084754917532</v>
+        <v>7.515104347919943</v>
       </c>
       <c r="AG6" t="n">
         <v>128</v>
@@ -1543,16 +1543,16 @@
         <v>128</v>
       </c>
       <c r="AI6" t="n">
-        <v>131.1469297409058</v>
+        <v>131.1469478607178</v>
       </c>
       <c r="AJ6" t="n">
         <v>128</v>
       </c>
       <c r="AK6" t="n">
-        <v>93.63746895053286</v>
+        <v>93.63855494683484</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.676645542259614</v>
+        <v>9.676701656392783</v>
       </c>
       <c r="AM6" t="n">
         <v>128</v>
@@ -1561,16 +1561,16 @@
         <v>128</v>
       </c>
       <c r="AO6" t="n">
-        <v>72.0436249094903</v>
+        <v>72.04345381943277</v>
       </c>
       <c r="AP6" t="n">
         <v>68</v>
       </c>
       <c r="AQ6" t="n">
-        <v>899.5425726442807</v>
+        <v>899.5399845295673</v>
       </c>
       <c r="AR6" t="n">
-        <v>29.99237524178905</v>
+        <v>29.99233209554681</v>
       </c>
       <c r="AS6" t="n">
         <v>49</v>
@@ -1579,16 +1579,16 @@
         <v>87</v>
       </c>
       <c r="AU6" t="n">
-        <v>70.64786610980927</v>
+        <v>70.64769196457213</v>
       </c>
       <c r="AV6" t="n">
         <v>63</v>
       </c>
       <c r="AW6" t="n">
-        <v>1147.037581006817</v>
+        <v>1147.034815601258</v>
       </c>
       <c r="AX6" t="n">
-        <v>33.86794326508206</v>
+        <v>33.86790243875841</v>
       </c>
       <c r="AY6" t="n">
         <v>46</v>
@@ -1597,16 +1597,16 @@
         <v>89</v>
       </c>
       <c r="BA6" t="n">
-        <v>35.06658152899518</v>
+        <v>35.06627295585571</v>
       </c>
       <c r="BB6" t="n">
         <v>26</v>
       </c>
       <c r="BC6" t="n">
-        <v>1194.652977390872</v>
+        <v>1194.648041498632</v>
       </c>
       <c r="BD6" t="n">
-        <v>34.5637523627119</v>
+        <v>34.56368095991269</v>
       </c>
       <c r="BE6" t="n">
         <v>12</v>
@@ -1649,16 +1649,16 @@
         <v>17</v>
       </c>
       <c r="K7" t="n">
-        <v>163.946349626401</v>
+        <v>163.9467387920299</v>
       </c>
       <c r="L7" t="n">
         <v>166</v>
       </c>
       <c r="M7" t="n">
-        <v>3184.866867901423</v>
+        <v>3184.873265879673</v>
       </c>
       <c r="N7" t="n">
-        <v>56.43462472544159</v>
+        <v>56.43468141027886</v>
       </c>
       <c r="O7" t="n">
         <v>114</v>
@@ -1685,16 +1685,16 @@
         <v>138</v>
       </c>
       <c r="W7" t="n">
-        <v>88.82008592357541</v>
+        <v>88.81989275006954</v>
       </c>
       <c r="X7" t="n">
         <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>826.5811705849128</v>
+        <v>826.583071408091</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.75032470399096</v>
+        <v>28.750357761393</v>
       </c>
       <c r="AA7" t="n">
         <v>65</v>
@@ -1703,16 +1703,16 @@
         <v>110</v>
       </c>
       <c r="AC7" t="n">
-        <v>116.8296035844991</v>
+        <v>116.8295433868044</v>
       </c>
       <c r="AD7" t="n">
         <v>118</v>
       </c>
       <c r="AE7" t="n">
-        <v>141.7173508056759</v>
+        <v>141.718484988344</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.90450968354749</v>
+        <v>11.9045573201335</v>
       </c>
       <c r="AG7" t="n">
         <v>107</v>
@@ -1721,16 +1721,16 @@
         <v>128</v>
       </c>
       <c r="AI7" t="n">
-        <v>141.7083462735575</v>
+        <v>141.7084447788761</v>
       </c>
       <c r="AJ7" t="n">
         <v>143</v>
       </c>
       <c r="AK7" t="n">
-        <v>200.004844729019</v>
+        <v>200.0080926560213</v>
       </c>
       <c r="AL7" t="n">
-        <v>14.14230690973078</v>
+        <v>14.14242173943421</v>
       </c>
       <c r="AM7" t="n">
         <v>128</v>
@@ -1739,16 +1739,16 @@
         <v>154</v>
       </c>
       <c r="AO7" t="n">
-        <v>86.45874844173372</v>
+        <v>86.4585578438746</v>
       </c>
       <c r="AP7" t="n">
         <v>87</v>
       </c>
       <c r="AQ7" t="n">
-        <v>712.7836516361609</v>
+        <v>712.7858818388779</v>
       </c>
       <c r="AR7" t="n">
-        <v>26.69800838332629</v>
+        <v>26.69805015050496</v>
       </c>
       <c r="AS7" t="n">
         <v>65</v>
@@ -1757,16 +1757,16 @@
         <v>107</v>
       </c>
       <c r="AU7" t="n">
-        <v>87.19279231014907</v>
+        <v>87.19262489311066</v>
       </c>
       <c r="AV7" t="n">
         <v>89</v>
       </c>
       <c r="AW7" t="n">
-        <v>854.9597403490532</v>
+        <v>854.960858313979</v>
       </c>
       <c r="AX7" t="n">
-        <v>29.23969460081711</v>
+        <v>29.23971371805782</v>
       </c>
       <c r="AY7" t="n">
         <v>62</v>
@@ -1775,16 +1775,16 @@
         <v>109</v>
       </c>
       <c r="BA7" t="n">
-        <v>55.86883261386934</v>
+        <v>55.86844626685761</v>
       </c>
       <c r="BB7" t="n">
         <v>50</v>
       </c>
       <c r="BC7" t="n">
-        <v>1322.434450227414</v>
+        <v>1322.4406745143</v>
       </c>
       <c r="BD7" t="n">
-        <v>36.36529183476208</v>
+        <v>36.36537741471</v>
       </c>
       <c r="BE7" t="n">
         <v>26</v>
@@ -1827,16 +1827,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="n">
-        <v>143.5436247590592</v>
+        <v>143.5440405582401</v>
       </c>
       <c r="L8" t="n">
         <v>141</v>
       </c>
       <c r="M8" t="n">
-        <v>2623.444529323425</v>
+        <v>2623.456836167942</v>
       </c>
       <c r="N8" t="n">
-        <v>51.21957174092171</v>
+        <v>51.21969187888524</v>
       </c>
       <c r="O8" t="n">
         <v>105</v>
@@ -1863,16 +1863,16 @@
         <v>186</v>
       </c>
       <c r="W8" t="n">
-        <v>127.9930184696415</v>
+        <v>127.9927865348651</v>
       </c>
       <c r="X8" t="n">
         <v>121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1474.238022030635</v>
+        <v>1474.243916927763</v>
       </c>
       <c r="Z8" t="n">
-        <v>38.39580734963956</v>
+        <v>38.39588411441731</v>
       </c>
       <c r="AA8" t="n">
         <v>94</v>
@@ -1881,16 +1881,16 @@
         <v>164</v>
       </c>
       <c r="AC8" t="n">
-        <v>116.370115283845</v>
+        <v>116.3700807255702</v>
       </c>
       <c r="AD8" t="n">
         <v>128</v>
       </c>
       <c r="AE8" t="n">
-        <v>224.3214711505171</v>
+        <v>224.3225014802572</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.97736529402008</v>
+        <v>14.97739969020848</v>
       </c>
       <c r="AG8" t="n">
         <v>104</v>
@@ -1899,16 +1899,16 @@
         <v>128</v>
       </c>
       <c r="AI8" t="n">
-        <v>139.649122155822</v>
+        <v>139.649219430966</v>
       </c>
       <c r="AJ8" t="n">
         <v>128</v>
       </c>
       <c r="AK8" t="n">
-        <v>214.4875230554002</v>
+        <v>214.4904967642832</v>
       </c>
       <c r="AL8" t="n">
-        <v>14.64539255381706</v>
+        <v>14.64549407716528</v>
       </c>
       <c r="AM8" t="n">
         <v>128</v>
@@ -1917,16 +1917,16 @@
         <v>153</v>
       </c>
       <c r="AO8" t="n">
-        <v>122.6547753608934</v>
+        <v>122.6545375543505</v>
       </c>
       <c r="AP8" t="n">
         <v>116</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1229.09179545448</v>
+        <v>1229.098885772072</v>
       </c>
       <c r="AR8" t="n">
-        <v>35.0584054893328</v>
+        <v>35.05850661069397</v>
       </c>
       <c r="AS8" t="n">
         <v>92</v>
@@ -1935,16 +1935,16 @@
         <v>154</v>
       </c>
       <c r="AU8" t="n">
-        <v>126.9625205144842</v>
+        <v>126.962291515591</v>
       </c>
       <c r="AV8" t="n">
         <v>120</v>
       </c>
       <c r="AW8" t="n">
-        <v>1552.145730012913</v>
+        <v>1552.149323931342</v>
       </c>
       <c r="AX8" t="n">
-        <v>39.39728074389033</v>
+        <v>39.39732635511377</v>
       </c>
       <c r="AY8" t="n">
         <v>92</v>
@@ -1953,16 +1953,16 @@
         <v>164</v>
       </c>
       <c r="BA8" t="n">
-        <v>87.7471088889737</v>
+        <v>87.74669492943605</v>
       </c>
       <c r="BB8" t="n">
         <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>2224.273402557972</v>
+        <v>2224.283665308772</v>
       </c>
       <c r="BD8" t="n">
-        <v>47.16220311391286</v>
+        <v>47.16231191649506</v>
       </c>
       <c r="BE8" t="n">
         <v>49</v>
@@ -2005,16 +2005,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>135.3803463440624</v>
+        <v>135.3806563861137</v>
       </c>
       <c r="L9" t="n">
         <v>134</v>
       </c>
       <c r="M9" t="n">
-        <v>1622.106970399562</v>
+        <v>1622.124268388258</v>
       </c>
       <c r="N9" t="n">
-        <v>40.27538914026234</v>
+        <v>40.27560388607796</v>
       </c>
       <c r="O9" t="n">
         <v>109</v>
@@ -2032,7 +2032,7 @@
         <v>626.2606784635723</v>
       </c>
       <c r="T9" t="n">
-        <v>25.0252008675969</v>
+        <v>25.02520086759689</v>
       </c>
       <c r="U9" t="n">
         <v>128</v>
@@ -2041,16 +2041,16 @@
         <v>160</v>
       </c>
       <c r="W9" t="n">
-        <v>117.4520811956279</v>
+        <v>117.4519503308796</v>
       </c>
       <c r="X9" t="n">
         <v>117</v>
       </c>
       <c r="Y9" t="n">
-        <v>780.2514096399237</v>
+        <v>780.2602839871233</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.932980679475</v>
+        <v>27.93313952972568</v>
       </c>
       <c r="AA9" t="n">
         <v>96</v>
@@ -2059,16 +2059,16 @@
         <v>136</v>
       </c>
       <c r="AC9" t="n">
-        <v>125.4886566797892</v>
+        <v>125.4886455535889</v>
       </c>
       <c r="AD9" t="n">
         <v>128</v>
       </c>
       <c r="AE9" t="n">
-        <v>64.01310769281541</v>
+        <v>64.01348128060756</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.000819188859063</v>
+        <v>8.000842535671325</v>
       </c>
       <c r="AG9" t="n">
         <v>128</v>
@@ -2077,16 +2077,16 @@
         <v>128</v>
       </c>
       <c r="AI9" t="n">
-        <v>130.5319089889526</v>
+        <v>130.5319226582845</v>
       </c>
       <c r="AJ9" t="n">
         <v>128</v>
       </c>
       <c r="AK9" t="n">
-        <v>58.84541545595001</v>
+        <v>58.84617561551897</v>
       </c>
       <c r="AL9" t="n">
-        <v>7.671076551302953</v>
+        <v>7.671126098267383</v>
       </c>
       <c r="AM9" t="n">
         <v>128</v>
@@ -2095,16 +2095,16 @@
         <v>128</v>
       </c>
       <c r="AO9" t="n">
-        <v>112.5638664584728</v>
+        <v>112.5637445163209</v>
       </c>
       <c r="AP9" t="n">
         <v>113</v>
       </c>
       <c r="AQ9" t="n">
-        <v>647.8059418948739</v>
+        <v>647.8134762306611</v>
       </c>
       <c r="AR9" t="n">
-        <v>25.4520321761323</v>
+        <v>25.45218018619743</v>
       </c>
       <c r="AS9" t="n">
         <v>93</v>
@@ -2113,16 +2113,16 @@
         <v>130</v>
       </c>
       <c r="AU9" t="n">
-        <v>116.5200059483976</v>
+        <v>116.5198750836493</v>
       </c>
       <c r="AV9" t="n">
         <v>116</v>
       </c>
       <c r="AW9" t="n">
-        <v>824.638113406166</v>
+        <v>824.6469341505051</v>
       </c>
       <c r="AX9" t="n">
-        <v>28.71651290470635</v>
+        <v>28.71666648743383</v>
       </c>
       <c r="AY9" t="n">
         <v>95</v>
@@ -2131,16 +2131,16 @@
         <v>136</v>
       </c>
       <c r="BA9" t="n">
-        <v>82.44953528143357</v>
+        <v>82.44922299055692</v>
       </c>
       <c r="BB9" t="n">
         <v>80</v>
       </c>
       <c r="BC9" t="n">
-        <v>1140.152493092089</v>
+        <v>1140.171692644825</v>
       </c>
       <c r="BD9" t="n">
-        <v>33.76614418455399</v>
+        <v>33.76642848518075</v>
       </c>
       <c r="BE9" t="n">
         <v>57</v>
@@ -2183,16 +2183,16 @@
         <v>19</v>
       </c>
       <c r="K10" t="n">
-        <v>143.5588729797856</v>
+        <v>143.5592308702402</v>
       </c>
       <c r="L10" t="n">
         <v>141</v>
       </c>
       <c r="M10" t="n">
-        <v>2009.695439316662</v>
+        <v>2009.70836864634</v>
       </c>
       <c r="N10" t="n">
-        <v>44.8296268032276</v>
+        <v>44.82977100818539</v>
       </c>
       <c r="O10" t="n">
         <v>112</v>
@@ -2219,16 +2219,16 @@
         <v>190</v>
       </c>
       <c r="W10" t="n">
-        <v>135.0340774868683</v>
+        <v>135.0339269724406</v>
       </c>
       <c r="X10" t="n">
         <v>132</v>
       </c>
       <c r="Y10" t="n">
-        <v>1133.373841594867</v>
+        <v>1133.378767784794</v>
       </c>
       <c r="Z10" t="n">
-        <v>33.66561809316543</v>
+        <v>33.66569125660119</v>
       </c>
       <c r="AA10" t="n">
         <v>106</v>
@@ -2237,16 +2237,16 @@
         <v>162</v>
       </c>
       <c r="AC10" t="n">
-        <v>124.3918892542521</v>
+        <v>124.3918762207031</v>
       </c>
       <c r="AD10" t="n">
         <v>128</v>
       </c>
       <c r="AE10" t="n">
-        <v>105.6732123504673</v>
+        <v>105.6739832799261</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.27974767931914</v>
+        <v>10.27978517674013</v>
       </c>
       <c r="AG10" t="n">
         <v>128</v>
@@ -2255,16 +2255,16 @@
         <v>128</v>
       </c>
       <c r="AI10" t="n">
-        <v>131.5215199788412</v>
+        <v>131.5215384165446</v>
       </c>
       <c r="AJ10" t="n">
         <v>128</v>
       </c>
       <c r="AK10" t="n">
-        <v>97.3456570890782</v>
+        <v>97.34650951580171</v>
       </c>
       <c r="AL10" t="n">
-        <v>9.866390276543807</v>
+        <v>9.866433474959516</v>
       </c>
       <c r="AM10" t="n">
         <v>128</v>
@@ -2273,16 +2273,16 @@
         <v>128</v>
       </c>
       <c r="AO10" t="n">
-        <v>129.2398562204552</v>
+        <v>129.2397006038435</v>
       </c>
       <c r="AP10" t="n">
         <v>127</v>
       </c>
       <c r="AQ10" t="n">
-        <v>941.8629693136712</v>
+        <v>941.8697558637176</v>
       </c>
       <c r="AR10" t="n">
-        <v>30.68978607474596</v>
+        <v>30.68989664146358</v>
       </c>
       <c r="AS10" t="n">
         <v>103</v>
@@ -2291,16 +2291,16 @@
         <v>153</v>
       </c>
       <c r="AU10" t="n">
-        <v>134.0424297620596</v>
+        <v>134.0422920030919</v>
       </c>
       <c r="AV10" t="n">
         <v>131</v>
       </c>
       <c r="AW10" t="n">
-        <v>1197.034142050408</v>
+        <v>1197.039133453165</v>
       </c>
       <c r="AX10" t="n">
-        <v>34.59818119569883</v>
+        <v>34.59825332951311</v>
       </c>
       <c r="AY10" t="n">
         <v>103</v>
@@ -2309,16 +2309,16 @@
         <v>162</v>
       </c>
       <c r="BA10" t="n">
-        <v>91.043766534265</v>
+        <v>91.04342979012166</v>
       </c>
       <c r="BB10" t="n">
         <v>86</v>
       </c>
       <c r="BC10" t="n">
-        <v>1742.984448903765</v>
+        <v>1742.993264227448</v>
       </c>
       <c r="BD10" t="n">
-        <v>41.74906524586827</v>
+        <v>41.74917082083725</v>
       </c>
       <c r="BE10" t="n">
         <v>60</v>
@@ -2361,16 +2361,16 @@
         <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>130.2790227714398</v>
+        <v>130.2792326018323</v>
       </c>
       <c r="L11" t="n">
         <v>125</v>
       </c>
       <c r="M11" t="n">
-        <v>1708.228033811015</v>
+        <v>1708.243176183844</v>
       </c>
       <c r="N11" t="n">
-        <v>41.33071537986023</v>
+        <v>41.33089856492168</v>
       </c>
       <c r="O11" t="n">
         <v>99</v>
@@ -2397,16 +2397,16 @@
         <v>184</v>
       </c>
       <c r="W11" t="n">
-        <v>137.0639757846268</v>
+        <v>137.0638379057806</v>
       </c>
       <c r="X11" t="n">
         <v>137</v>
       </c>
       <c r="Y11" t="n">
-        <v>888.5537392587412</v>
+        <v>888.5615646720208</v>
       </c>
       <c r="Z11" t="n">
-        <v>29.80861853992468</v>
+        <v>29.80874980055388</v>
       </c>
       <c r="AA11" t="n">
         <v>114</v>
@@ -2415,16 +2415,16 @@
         <v>160</v>
       </c>
       <c r="AC11" t="n">
-        <v>116.2826135105205</v>
+        <v>116.2826049919073</v>
       </c>
       <c r="AD11" t="n">
         <v>128</v>
       </c>
       <c r="AE11" t="n">
-        <v>219.7868331843283</v>
+        <v>219.7870509645354</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.82520938079218</v>
+        <v>14.8252167257189</v>
       </c>
       <c r="AG11" t="n">
         <v>104</v>
@@ -2433,16 +2433,16 @@
         <v>128</v>
       </c>
       <c r="AI11" t="n">
-        <v>139.2445594457222</v>
+        <v>139.2446162364767</v>
       </c>
       <c r="AJ11" t="n">
         <v>128</v>
       </c>
       <c r="AK11" t="n">
-        <v>185.1543159579124</v>
+        <v>185.1561168395501</v>
       </c>
       <c r="AL11" t="n">
-        <v>13.60714209369155</v>
+        <v>13.60720826766277</v>
       </c>
       <c r="AM11" t="n">
         <v>128</v>
@@ -2451,16 +2451,16 @@
         <v>152</v>
       </c>
       <c r="AO11" t="n">
-        <v>130.9820148267857</v>
+        <v>130.9819154257571</v>
       </c>
       <c r="AP11" t="n">
         <v>132</v>
       </c>
       <c r="AQ11" t="n">
-        <v>731.7741740773771</v>
+        <v>731.7776367020705</v>
       </c>
       <c r="AR11" t="n">
-        <v>27.05132481187155</v>
+        <v>27.0513888128146</v>
       </c>
       <c r="AS11" t="n">
         <v>110</v>
@@ -2469,16 +2469,16 @@
         <v>151</v>
       </c>
       <c r="AU11" t="n">
-        <v>136.2265349442713</v>
+        <v>136.2264419562123</v>
       </c>
       <c r="AV11" t="n">
         <v>135</v>
       </c>
       <c r="AW11" t="n">
-        <v>944.0690116739204</v>
+        <v>944.0740847700064</v>
       </c>
       <c r="AX11" t="n">
-        <v>30.7257060402836</v>
+        <v>30.725788594762</v>
       </c>
       <c r="AY11" t="n">
         <v>113</v>
@@ -2487,16 +2487,16 @@
         <v>160</v>
       </c>
       <c r="BA11" t="n">
-        <v>98.16284133030641</v>
+        <v>98.16263611527954</v>
       </c>
       <c r="BB11" t="n">
         <v>100</v>
       </c>
       <c r="BC11" t="n">
-        <v>1362.994546099761</v>
+        <v>1363.005168640569</v>
       </c>
       <c r="BD11" t="n">
-        <v>36.91875602048045</v>
+        <v>36.91889988394249</v>
       </c>
       <c r="BE11" t="n">
         <v>72</v>
@@ -2515,7 +2515,7 @@
         <v>600000</v>
       </c>
       <c r="C12" t="n">
-        <v>31.54153782725211</v>
+        <v>31.54153782725212</v>
       </c>
       <c r="D12" t="n">
         <v>19022.53476942382</v>
@@ -2539,16 +2539,16 @@
         <v>19</v>
       </c>
       <c r="K12" t="n">
-        <v>104.6488718606044</v>
+        <v>104.6490789613617</v>
       </c>
       <c r="L12" t="n">
         <v>102</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.467654248775</v>
+        <v>1387.479609984177</v>
       </c>
       <c r="N12" t="n">
-        <v>37.24872688091199</v>
+        <v>37.2488873657211</v>
       </c>
       <c r="O12" t="n">
         <v>78</v>
@@ -2575,16 +2575,16 @@
         <v>201</v>
       </c>
       <c r="W12" t="n">
-        <v>156.5852682654553</v>
+        <v>156.5851908958024</v>
       </c>
       <c r="X12" t="n">
         <v>159</v>
       </c>
       <c r="Y12" t="n">
-        <v>807.3982340355473</v>
+        <v>807.3940471570439</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.41475380916659</v>
+        <v>28.41468013469524</v>
       </c>
       <c r="AA12" t="n">
         <v>133</v>
@@ -2593,16 +2593,16 @@
         <v>178</v>
       </c>
       <c r="AC12" t="n">
-        <v>116.5739208495892</v>
+        <v>116.573897691855</v>
       </c>
       <c r="AD12" t="n">
         <v>128</v>
       </c>
       <c r="AE12" t="n">
-        <v>201.1173043922009</v>
+        <v>201.1185365374721</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.18158328227849</v>
+        <v>14.18162672395068</v>
       </c>
       <c r="AG12" t="n">
         <v>107</v>
@@ -2611,16 +2611,16 @@
         <v>128</v>
       </c>
       <c r="AI12" t="n">
-        <v>139.287203581003</v>
+        <v>139.2872389987141</v>
       </c>
       <c r="AJ12" t="n">
         <v>128</v>
       </c>
       <c r="AK12" t="n">
-        <v>151.6190122722358</v>
+        <v>151.6198065341484</v>
       </c>
       <c r="AL12" t="n">
-        <v>12.31336721909307</v>
+        <v>12.31339947107006</v>
       </c>
       <c r="AM12" t="n">
         <v>128</v>
@@ -2629,16 +2629,16 @@
         <v>151</v>
       </c>
       <c r="AO12" t="n">
-        <v>149.6129168635448</v>
+        <v>149.6128698891127</v>
       </c>
       <c r="AP12" t="n">
         <v>152</v>
       </c>
       <c r="AQ12" t="n">
-        <v>678.8758202117983</v>
+        <v>678.8740457895835</v>
       </c>
       <c r="AR12" t="n">
-        <v>26.05524554119187</v>
+        <v>26.05521149001834</v>
       </c>
       <c r="AS12" t="n">
         <v>128</v>
@@ -2647,16 +2647,16 @@
         <v>169</v>
       </c>
       <c r="AU12" t="n">
-        <v>155.7459263496169</v>
+        <v>155.7458379271565</v>
       </c>
       <c r="AV12" t="n">
         <v>158</v>
       </c>
       <c r="AW12" t="n">
-        <v>848.2329798698559</v>
+        <v>848.2281766967517</v>
       </c>
       <c r="AX12" t="n">
-        <v>29.12443956318912</v>
+        <v>29.1243571035783</v>
       </c>
       <c r="AY12" t="n">
         <v>132</v>
@@ -2665,16 +2665,16 @@
         <v>178</v>
       </c>
       <c r="BA12" t="n">
-        <v>125.6004631126364</v>
+        <v>125.6002669253024</v>
       </c>
       <c r="BB12" t="n">
         <v>125</v>
       </c>
       <c r="BC12" t="n">
-        <v>1407.491996834427</v>
+        <v>1407.493771505904</v>
       </c>
       <c r="BD12" t="n">
-        <v>37.51655630297678</v>
+        <v>37.51657995481337</v>
       </c>
       <c r="BE12" t="n">
         <v>98</v>
@@ -2717,16 +2717,16 @@
         <v>19</v>
       </c>
       <c r="K13" t="n">
-        <v>112.6058653959289</v>
+        <v>112.6060183551006</v>
       </c>
       <c r="L13" t="n">
         <v>108</v>
       </c>
       <c r="M13" t="n">
-        <v>1899.921478716321</v>
+        <v>1899.92853537606</v>
       </c>
       <c r="N13" t="n">
-        <v>43.58808872520474</v>
+        <v>43.58816967224088</v>
       </c>
       <c r="O13" t="n">
         <v>83</v>
@@ -2753,16 +2753,16 @@
         <v>194</v>
       </c>
       <c r="W13" t="n">
-        <v>149.8006256499033</v>
+        <v>149.8005675579903</v>
       </c>
       <c r="X13" t="n">
         <v>149</v>
       </c>
       <c r="Y13" t="n">
-        <v>681.7126418030423</v>
+        <v>681.7102252487762</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.10962737771342</v>
+        <v>26.10958110059937</v>
       </c>
       <c r="AA13" t="n">
         <v>130</v>
@@ -2771,16 +2771,16 @@
         <v>168</v>
       </c>
       <c r="AC13" t="n">
-        <v>125.3196557362874</v>
+        <v>125.3196509679158</v>
       </c>
       <c r="AD13" t="n">
         <v>128</v>
       </c>
       <c r="AE13" t="n">
-        <v>79.29437642872357</v>
+        <v>79.29475045648465</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.904738987119362</v>
+        <v>8.904759988707424</v>
       </c>
       <c r="AG13" t="n">
         <v>128</v>
@@ -2789,16 +2789,16 @@
         <v>128</v>
       </c>
       <c r="AI13" t="n">
-        <v>130.5768473943075</v>
+        <v>130.5768527984619</v>
       </c>
       <c r="AJ13" t="n">
         <v>128</v>
       </c>
       <c r="AK13" t="n">
-        <v>59.85146358300949</v>
+        <v>59.8516681102592</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.736372766549547</v>
+        <v>7.736385985087558</v>
       </c>
       <c r="AM13" t="n">
         <v>128</v>
@@ -2807,16 +2807,16 @@
         <v>128</v>
       </c>
       <c r="AO13" t="n">
-        <v>143.0486984506887</v>
+        <v>143.0486577863496</v>
       </c>
       <c r="AP13" t="n">
         <v>143</v>
       </c>
       <c r="AQ13" t="n">
-        <v>580.8323976326841</v>
+        <v>580.8302986643596</v>
       </c>
       <c r="AR13" t="n">
-        <v>24.10046467669626</v>
+        <v>24.10042113043587</v>
       </c>
       <c r="AS13" t="n">
         <v>125</v>
@@ -2825,16 +2825,16 @@
         <v>159</v>
       </c>
       <c r="AU13" t="n">
-        <v>149.0311111240204</v>
+        <v>149.03106465049</v>
       </c>
       <c r="AV13" t="n">
         <v>148</v>
       </c>
       <c r="AW13" t="n">
-        <v>714.0908841262413</v>
+        <v>714.0876745329787</v>
       </c>
       <c r="AX13" t="n">
-        <v>26.72247900413136</v>
+        <v>26.72241894988137</v>
       </c>
       <c r="AY13" t="n">
         <v>129</v>
@@ -2843,16 +2843,16 @@
         <v>168</v>
       </c>
       <c r="BA13" t="n">
-        <v>115.7237032432715</v>
+        <v>115.7235551088933</v>
       </c>
       <c r="BB13" t="n">
         <v>114</v>
       </c>
       <c r="BC13" t="n">
-        <v>1499.044200821747</v>
+        <v>1499.044133464686</v>
       </c>
       <c r="BD13" t="n">
-        <v>38.71749218146428</v>
+        <v>38.71749131161116</v>
       </c>
       <c r="BE13" t="n">
         <v>90</v>
@@ -2895,16 +2895,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>97.66036665813364</v>
+        <v>97.66058326605361</v>
       </c>
       <c r="L14" t="n">
         <v>95</v>
       </c>
       <c r="M14" t="n">
-        <v>628.3001268135562</v>
+        <v>628.3024793636386</v>
       </c>
       <c r="N14" t="n">
-        <v>25.06591563884225</v>
+        <v>25.06596256607032</v>
       </c>
       <c r="O14" t="n">
         <v>84</v>
@@ -2931,16 +2931,16 @@
         <v>197</v>
       </c>
       <c r="W14" t="n">
-        <v>157.7213024228718</v>
+        <v>157.72117754263</v>
       </c>
       <c r="X14" t="n">
         <v>153</v>
       </c>
       <c r="Y14" t="n">
-        <v>627.2485987559955</v>
+        <v>627.2412041260753</v>
       </c>
       <c r="Z14" t="n">
-        <v>25.04493159814967</v>
+        <v>25.04478397044134</v>
       </c>
       <c r="AA14" t="n">
         <v>140</v>
@@ -2949,16 +2949,16 @@
         <v>177</v>
       </c>
       <c r="AC14" t="n">
-        <v>124.4005651473999</v>
+        <v>124.4005584716797</v>
       </c>
       <c r="AD14" t="n">
         <v>128</v>
       </c>
       <c r="AE14" t="n">
-        <v>77.60302075553871</v>
+        <v>77.60342950785223</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.809257673353567</v>
+        <v>8.809280873479528</v>
       </c>
       <c r="AG14" t="n">
         <v>128</v>
@@ -2967,16 +2967,16 @@
         <v>128</v>
       </c>
       <c r="AI14" t="n">
-        <v>131.3976256052653</v>
+        <v>131.3976395924886</v>
       </c>
       <c r="AJ14" t="n">
         <v>128</v>
       </c>
       <c r="AK14" t="n">
-        <v>64.62705076382015</v>
+        <v>64.62745035600746</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.039095145837008</v>
+        <v>8.03911999885606</v>
       </c>
       <c r="AM14" t="n">
         <v>128</v>
@@ -2985,16 +2985,16 @@
         <v>128</v>
       </c>
       <c r="AO14" t="n">
-        <v>150.4057222468297</v>
+        <v>150.4056071228568</v>
       </c>
       <c r="AP14" t="n">
         <v>146</v>
       </c>
       <c r="AQ14" t="n">
-        <v>515.6080079044099</v>
+        <v>515.6015587539523</v>
       </c>
       <c r="AR14" t="n">
-        <v>22.70700349901787</v>
+        <v>22.70686149061451</v>
       </c>
       <c r="AS14" t="n">
         <v>135</v>
@@ -3003,16 +3003,16 @@
         <v>167</v>
       </c>
       <c r="AU14" t="n">
-        <v>157.0828853579868</v>
+        <v>157.0827721852677</v>
       </c>
       <c r="AV14" t="n">
         <v>151</v>
       </c>
       <c r="AW14" t="n">
-        <v>666.3161093477997</v>
+        <v>666.30888504169</v>
       </c>
       <c r="AX14" t="n">
-        <v>25.81309956878096</v>
+        <v>25.81295963351917</v>
       </c>
       <c r="AY14" t="n">
         <v>138</v>
@@ -3021,16 +3021,16 @@
         <v>177</v>
       </c>
       <c r="BA14" t="n">
-        <v>129.0581493138416</v>
+        <v>129.0579366271798</v>
       </c>
       <c r="BB14" t="n">
         <v>125</v>
       </c>
       <c r="BC14" t="n">
-        <v>801.0440029040475</v>
+        <v>801.0380430986411</v>
       </c>
       <c r="BD14" t="n">
-        <v>28.30272076857714</v>
+        <v>28.30261548158829</v>
       </c>
       <c r="BE14" t="n">
         <v>114</v>
@@ -3049,7 +3049,7 @@
         <v>33333.33</v>
       </c>
       <c r="C15" t="n">
-        <v>30.21839920541219</v>
+        <v>30.2183992054122</v>
       </c>
       <c r="D15" t="n">
         <v>1103.080602430784</v>
@@ -3073,16 +3073,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>90.59187115746036</v>
+        <v>90.59212609162216</v>
       </c>
       <c r="L15" t="n">
         <v>90</v>
       </c>
       <c r="M15" t="n">
-        <v>878.8542435542801</v>
+        <v>878.8584890269354</v>
       </c>
       <c r="N15" t="n">
-        <v>29.64547593738849</v>
+        <v>29.6455475413583</v>
       </c>
       <c r="O15" t="n">
         <v>72</v>
@@ -3109,16 +3109,16 @@
         <v>192</v>
       </c>
       <c r="W15" t="n">
-        <v>154.178888702525</v>
+        <v>154.1787209750557</v>
       </c>
       <c r="X15" t="n">
         <v>154</v>
       </c>
       <c r="Y15" t="n">
-        <v>669.1862034419659</v>
+        <v>669.1755141519583</v>
       </c>
       <c r="Z15" t="n">
-        <v>25.86863358281542</v>
+        <v>25.86842697482702</v>
       </c>
       <c r="AA15" t="n">
         <v>134</v>
@@ -3127,16 +3127,16 @@
         <v>172</v>
       </c>
       <c r="AC15" t="n">
-        <v>125.8896697362264</v>
+        <v>125.8896659215291</v>
       </c>
       <c r="AD15" t="n">
         <v>128</v>
       </c>
       <c r="AE15" t="n">
-        <v>45.33790740511649</v>
+        <v>45.33811700748089</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.733342959118931</v>
+        <v>6.733358523610701</v>
       </c>
       <c r="AG15" t="n">
         <v>128</v>
@@ -3145,16 +3145,16 @@
         <v>128</v>
       </c>
       <c r="AI15" t="n">
-        <v>130.1271864573161</v>
+        <v>130.1271959940592</v>
       </c>
       <c r="AJ15" t="n">
         <v>128</v>
       </c>
       <c r="AK15" t="n">
-        <v>41.322547741428</v>
+        <v>41.32282696726286</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.428261642265971</v>
+        <v>6.428283360840814</v>
       </c>
       <c r="AM15" t="n">
         <v>128</v>
@@ -3163,16 +3163,16 @@
         <v>128</v>
       </c>
       <c r="AO15" t="n">
-        <v>147.3041193277954</v>
+        <v>147.3039457151517</v>
       </c>
       <c r="AP15" t="n">
         <v>148</v>
       </c>
       <c r="AQ15" t="n">
-        <v>553.2359159342657</v>
+        <v>553.2256429970563</v>
       </c>
       <c r="AR15" t="n">
-        <v>23.52096758074093</v>
+        <v>23.52074920144034</v>
       </c>
       <c r="AS15" t="n">
         <v>130</v>
@@ -3181,16 +3181,16 @@
         <v>164</v>
       </c>
       <c r="AU15" t="n">
-        <v>153.4143986675965</v>
+        <v>153.4142515382374</v>
       </c>
       <c r="AV15" t="n">
         <v>153</v>
       </c>
       <c r="AW15" t="n">
-        <v>707.8851362989894</v>
+        <v>707.8759007905261</v>
       </c>
       <c r="AX15" t="n">
-        <v>26.60611088263351</v>
+        <v>26.60593732215661</v>
       </c>
       <c r="AY15" t="n">
         <v>133</v>
@@ -3199,16 +3199,16 @@
         <v>172</v>
       </c>
       <c r="BA15" t="n">
-        <v>130.0368529618611</v>
+        <v>130.0365998993635</v>
       </c>
       <c r="BB15" t="n">
         <v>130</v>
       </c>
       <c r="BC15" t="n">
-        <v>871.5648338865565</v>
+        <v>871.5565720343919</v>
       </c>
       <c r="BD15" t="n">
-        <v>29.52227690891332</v>
+        <v>29.52213698285393</v>
       </c>
       <c r="BE15" t="n">
         <v>112</v>
@@ -3251,16 +3251,16 @@
         <v>22</v>
       </c>
       <c r="K16" t="n">
-        <v>96.55415044936665</v>
+        <v>96.55438751680704</v>
       </c>
       <c r="L16" t="n">
         <v>89</v>
       </c>
       <c r="M16" t="n">
-        <v>1097.570852315912</v>
+        <v>1097.570260453893</v>
       </c>
       <c r="N16" t="n">
-        <v>33.12960688441551</v>
+        <v>33.12959795189028</v>
       </c>
       <c r="O16" t="n">
         <v>76</v>
@@ -3287,16 +3287,16 @@
         <v>190</v>
       </c>
       <c r="W16" t="n">
-        <v>151.3998498170306</v>
+        <v>151.3996664950961</v>
       </c>
       <c r="X16" t="n">
         <v>152</v>
       </c>
       <c r="Y16" t="n">
-        <v>670.68821322316</v>
+        <v>670.6737645457156</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.89764879720088</v>
+        <v>25.89736983837771</v>
       </c>
       <c r="AA16" t="n">
         <v>132</v>
@@ -3305,16 +3305,16 @@
         <v>172</v>
       </c>
       <c r="AC16" t="n">
-        <v>126.0448191960653</v>
+        <v>126.0448172887166</v>
       </c>
       <c r="AD16" t="n">
         <v>128</v>
       </c>
       <c r="AE16" t="n">
-        <v>46.60446166558746</v>
+        <v>46.60459407939421</v>
       </c>
       <c r="AF16" t="n">
-        <v>6.826746052519272</v>
+        <v>6.826755750676467</v>
       </c>
       <c r="AG16" t="n">
         <v>128</v>
@@ -3323,16 +3323,16 @@
         <v>128</v>
       </c>
       <c r="AI16" t="n">
-        <v>129.6372483571371</v>
+        <v>129.6372604370117</v>
       </c>
       <c r="AJ16" t="n">
         <v>128</v>
       </c>
       <c r="AK16" t="n">
-        <v>30.79283573493937</v>
+        <v>30.79316556913545</v>
       </c>
       <c r="AL16" t="n">
-        <v>5.549129277187491</v>
+        <v>5.549158996562944</v>
       </c>
       <c r="AM16" t="n">
         <v>128</v>
@@ -3341,16 +3341,16 @@
         <v>128</v>
       </c>
       <c r="AO16" t="n">
-        <v>143.7799995769494</v>
+        <v>143.779795102484</v>
       </c>
       <c r="AP16" t="n">
         <v>145</v>
       </c>
       <c r="AQ16" t="n">
-        <v>555.9638330275617</v>
+        <v>555.9494650584563</v>
       </c>
       <c r="AR16" t="n">
-        <v>23.57888532199013</v>
+        <v>23.57858064130359</v>
       </c>
       <c r="AS16" t="n">
         <v>126</v>
@@ -3359,16 +3359,16 @@
         <v>162</v>
       </c>
       <c r="AU16" t="n">
-        <v>151.1876088473986</v>
+        <v>151.187446677995</v>
       </c>
       <c r="AV16" t="n">
         <v>151</v>
       </c>
       <c r="AW16" t="n">
-        <v>709.7551319832503</v>
+        <v>709.7422263043391</v>
       </c>
       <c r="AX16" t="n">
-        <v>26.64122992624872</v>
+        <v>26.64098771262693</v>
       </c>
       <c r="AY16" t="n">
         <v>131</v>
@@ -3377,16 +3377,16 @@
         <v>172</v>
       </c>
       <c r="BA16" t="n">
-        <v>123.1079307889189</v>
+        <v>123.1076945856572</v>
       </c>
       <c r="BB16" t="n">
         <v>127</v>
       </c>
       <c r="BC16" t="n">
-        <v>858.4113275289516</v>
+        <v>858.3983097216939</v>
       </c>
       <c r="BD16" t="n">
-        <v>29.29865743560533</v>
+        <v>29.29843527770201</v>
       </c>
       <c r="BE16" t="n">
         <v>107</v>
@@ -3429,16 +3429,16 @@
         <v>19</v>
       </c>
       <c r="K17" t="n">
-        <v>92.2623137218673</v>
+        <v>92.26242505643717</v>
       </c>
       <c r="L17" t="n">
         <v>86</v>
       </c>
       <c r="M17" t="n">
-        <v>1987.784807871343</v>
+        <v>1987.794615587723</v>
       </c>
       <c r="N17" t="n">
-        <v>44.5845803823625</v>
+        <v>44.58469037223117</v>
       </c>
       <c r="O17" t="n">
         <v>60</v>
@@ -3465,16 +3465,16 @@
         <v>195</v>
       </c>
       <c r="W17" t="n">
-        <v>154.9050826670551</v>
+        <v>154.9062856095653</v>
       </c>
       <c r="X17" t="n">
         <v>159</v>
       </c>
       <c r="Y17" t="n">
-        <v>783.8468467039286</v>
+        <v>783.7162207261089</v>
       </c>
       <c r="Z17" t="n">
-        <v>27.99726498613621</v>
+        <v>27.99493205432206</v>
       </c>
       <c r="AA17" t="n">
         <v>139</v>
@@ -3483,16 +3483,16 @@
         <v>176</v>
       </c>
       <c r="AC17" t="n">
-        <v>117.8986150616364</v>
+        <v>117.8986347971314</v>
       </c>
       <c r="AD17" t="n">
         <v>121</v>
       </c>
       <c r="AE17" t="n">
-        <v>144.9803849716564</v>
+        <v>144.9788150673023</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.0407800815253</v>
+        <v>12.04071489020907</v>
       </c>
       <c r="AG17" t="n">
         <v>110</v>
@@ -3501,16 +3501,16 @@
         <v>128</v>
       </c>
       <c r="AI17" t="n">
-        <v>138.1891388170051</v>
+        <v>138.1885701880546</v>
       </c>
       <c r="AJ17" t="n">
         <v>141</v>
       </c>
       <c r="AK17" t="n">
-        <v>111.7593856376652</v>
+        <v>111.7390002575365</v>
       </c>
       <c r="AL17" t="n">
-        <v>10.57163117204082</v>
+        <v>10.57066697316383</v>
       </c>
       <c r="AM17" t="n">
         <v>128</v>
@@ -3519,16 +3519,16 @@
         <v>146</v>
       </c>
       <c r="AO17" t="n">
-        <v>147.9725437770045</v>
+        <v>147.9733520040035</v>
       </c>
       <c r="AP17" t="n">
         <v>151</v>
       </c>
       <c r="AQ17" t="n">
-        <v>700.1566906548238</v>
+        <v>700.0680784601147</v>
       </c>
       <c r="AR17" t="n">
-        <v>26.46047411999308</v>
+        <v>26.45879964133133</v>
       </c>
       <c r="AS17" t="n">
         <v>134</v>
@@ -3537,16 +3537,16 @@
         <v>168</v>
       </c>
       <c r="AU17" t="n">
-        <v>154.1458896723156</v>
+        <v>154.147151352253</v>
       </c>
       <c r="AV17" t="n">
         <v>158</v>
       </c>
       <c r="AW17" t="n">
-        <v>796.2895969594857</v>
+        <v>796.1607919770712</v>
       </c>
       <c r="AX17" t="n">
-        <v>28.21860373865946</v>
+        <v>28.21632137570507</v>
       </c>
       <c r="AY17" t="n">
         <v>138</v>
@@ -3555,16 +3555,16 @@
         <v>175</v>
       </c>
       <c r="BA17" t="n">
-        <v>131.361827250877</v>
+        <v>131.3631453187445</v>
       </c>
       <c r="BB17" t="n">
         <v>133</v>
       </c>
       <c r="BC17" t="n">
-        <v>1672.849836309858</v>
+        <v>1672.541517187979</v>
       </c>
       <c r="BD17" t="n">
-        <v>40.90048699355373</v>
+        <v>40.89671768232725</v>
       </c>
       <c r="BE17" t="n">
         <v>111</v>
@@ -3583,7 +3583,7 @@
         <v>29166.67</v>
       </c>
       <c r="C18" t="n">
-        <v>28.26026498753771</v>
+        <v>28.26026498753772</v>
       </c>
       <c r="D18" t="n">
         <v>1032.073478888538</v>
@@ -3607,16 +3607,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>83.68399573756322</v>
+        <v>83.68418378624473</v>
       </c>
       <c r="L18" t="n">
         <v>76</v>
       </c>
       <c r="M18" t="n">
-        <v>1183.286267932166</v>
+        <v>1183.298372374295</v>
       </c>
       <c r="N18" t="n">
-        <v>34.3989282962735</v>
+        <v>34.39910423796373</v>
       </c>
       <c r="O18" t="n">
         <v>63</v>
@@ -3643,16 +3643,16 @@
         <v>189</v>
       </c>
       <c r="W18" t="n">
-        <v>157.3742395636669</v>
+        <v>157.3741346758968</v>
       </c>
       <c r="X18" t="n">
         <v>158</v>
       </c>
       <c r="Y18" t="n">
-        <v>603.0285125064859</v>
+        <v>603.0223698459278</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.55663886826709</v>
+        <v>24.55651379666763</v>
       </c>
       <c r="AA18" t="n">
         <v>144</v>
@@ -3661,16 +3661,16 @@
         <v>171</v>
       </c>
       <c r="AC18" t="n">
-        <v>126.2380634943644</v>
+        <v>126.2380622227987</v>
       </c>
       <c r="AD18" t="n">
         <v>128</v>
       </c>
       <c r="AE18" t="n">
-        <v>39.12484782414402</v>
+        <v>39.1249164583373</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.254985837245679</v>
+        <v>6.25499132360208</v>
       </c>
       <c r="AG18" t="n">
         <v>128</v>
@@ -3679,16 +3679,16 @@
         <v>128</v>
       </c>
       <c r="AI18" t="n">
-        <v>129.7914355595907</v>
+        <v>129.7914441426595</v>
       </c>
       <c r="AJ18" t="n">
         <v>128</v>
       </c>
       <c r="AK18" t="n">
-        <v>33.31207421048003</v>
+        <v>33.31233305747803</v>
       </c>
       <c r="AL18" t="n">
-        <v>5.771661304206964</v>
+        <v>5.771683728122845</v>
       </c>
       <c r="AM18" t="n">
         <v>128</v>
@@ -3697,16 +3697,16 @@
         <v>128</v>
       </c>
       <c r="AO18" t="n">
-        <v>150.3260534665408</v>
+        <v>150.3259748007132</v>
       </c>
       <c r="AP18" t="n">
         <v>151</v>
       </c>
       <c r="AQ18" t="n">
-        <v>488.3826529768979</v>
+        <v>488.378666090093</v>
       </c>
       <c r="AR18" t="n">
-        <v>22.09938128040914</v>
+        <v>22.09929107664074</v>
       </c>
       <c r="AS18" t="n">
         <v>140</v>
@@ -3715,16 +3715,16 @@
         <v>163</v>
       </c>
       <c r="AU18" t="n">
-        <v>156.6562106670862</v>
+        <v>156.6561549454584</v>
       </c>
       <c r="AV18" t="n">
         <v>157</v>
       </c>
       <c r="AW18" t="n">
-        <v>646.9986079820511</v>
+        <v>646.9956426416096</v>
       </c>
       <c r="AX18" t="n">
-        <v>25.43616732100281</v>
+        <v>25.43610903109219</v>
       </c>
       <c r="AY18" t="n">
         <v>143</v>
@@ -3733,16 +3733,16 @@
         <v>171</v>
       </c>
       <c r="BA18" t="n">
-        <v>136.0877451751626</v>
+        <v>136.0875583438221</v>
       </c>
       <c r="BB18" t="n">
         <v>139</v>
       </c>
       <c r="BC18" t="n">
-        <v>847.1593870019826</v>
+        <v>847.1600326920807</v>
       </c>
       <c r="BD18" t="n">
-        <v>29.10600259400082</v>
+        <v>29.10601368604228</v>
       </c>
       <c r="BE18" t="n">
         <v>124</v>
@@ -3785,16 +3785,16 @@
         <v>21</v>
       </c>
       <c r="K19" t="n">
-        <v>90.37717364073949</v>
+        <v>90.37759818554903</v>
       </c>
       <c r="L19" t="n">
         <v>90</v>
       </c>
       <c r="M19" t="n">
-        <v>453.5235754705095</v>
+        <v>453.5234462724491</v>
       </c>
       <c r="N19" t="n">
-        <v>21.29609296257202</v>
+        <v>21.29608992919708</v>
       </c>
       <c r="O19" t="n">
         <v>76</v>
@@ -3821,16 +3821,16 @@
         <v>202</v>
       </c>
       <c r="W19" t="n">
-        <v>164.8959850843257</v>
+        <v>164.8957017318503</v>
       </c>
       <c r="X19" t="n">
         <v>170</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.2283322755437</v>
+        <v>613.2144796509864</v>
       </c>
       <c r="Z19" t="n">
-        <v>24.76344750384211</v>
+        <v>24.7631678032312</v>
       </c>
       <c r="AA19" t="n">
         <v>152</v>
@@ -3839,16 +3839,16 @@
         <v>182</v>
       </c>
       <c r="AC19" t="n">
-        <v>124.3725884755452</v>
+        <v>124.3725744883219</v>
       </c>
       <c r="AD19" t="n">
         <v>128</v>
       </c>
       <c r="AE19" t="n">
-        <v>73.07829577324392</v>
+        <v>73.07891464021883</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.548584430959545</v>
+        <v>8.548620627926988</v>
       </c>
       <c r="AG19" t="n">
         <v>128</v>
@@ -3857,16 +3857,16 @@
         <v>128</v>
       </c>
       <c r="AI19" t="n">
-        <v>131.0718037287394</v>
+        <v>131.0718393325806</v>
       </c>
       <c r="AJ19" t="n">
         <v>128</v>
       </c>
       <c r="AK19" t="n">
-        <v>50.01187780150411</v>
+        <v>50.01286260119968</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.071907649390234</v>
+        <v>7.071977276632023</v>
       </c>
       <c r="AM19" t="n">
         <v>128</v>
@@ -3875,16 +3875,16 @@
         <v>128</v>
       </c>
       <c r="AO19" t="n">
-        <v>156.6473451762075</v>
+        <v>156.6471411624252</v>
       </c>
       <c r="AP19" t="n">
         <v>161</v>
       </c>
       <c r="AQ19" t="n">
-        <v>531.1120771038178</v>
+        <v>531.1027072127091</v>
       </c>
       <c r="AR19" t="n">
-        <v>23.04586898131242</v>
+        <v>23.04566569254854</v>
       </c>
       <c r="AS19" t="n">
         <v>145</v>
@@ -3893,16 +3893,16 @@
         <v>173</v>
       </c>
       <c r="AU19" t="n">
-        <v>164.6087317898809</v>
+        <v>164.6085107749501</v>
       </c>
       <c r="AV19" t="n">
         <v>170</v>
       </c>
       <c r="AW19" t="n">
-        <v>631.242624142716</v>
+        <v>631.2325168038491</v>
       </c>
       <c r="AX19" t="n">
-        <v>25.1245422673273</v>
+        <v>25.12434112178564</v>
       </c>
       <c r="AY19" t="n">
         <v>151</v>
@@ -3911,16 +3911,16 @@
         <v>182</v>
       </c>
       <c r="BA19" t="n">
-        <v>137.9827778365472</v>
+        <v>137.9823584748837</v>
       </c>
       <c r="BB19" t="n">
         <v>139</v>
       </c>
       <c r="BC19" t="n">
-        <v>845.5971709815626</v>
+        <v>845.5833325383036</v>
       </c>
       <c r="BD19" t="n">
-        <v>29.07915354651099</v>
+        <v>29.07891560114138</v>
       </c>
       <c r="BE19" t="n">
         <v>120</v>
@@ -3929,7 +3929,1431 @@
         <v>157</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>white1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>437.4712617829501</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25.21581529746664</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.444869351947702</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.856035924207208</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24</v>
+      </c>
+      <c r="J20" t="n">
+        <v>26</v>
+      </c>
+      <c r="K20" t="n">
+        <v>33.34612417083056</v>
+      </c>
+      <c r="L20" t="n">
+        <v>30</v>
+      </c>
+      <c r="M20" t="n">
+        <v>187.9481657384396</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13.70941886946488</v>
+      </c>
+      <c r="O20" t="n">
+        <v>24</v>
+      </c>
+      <c r="P20" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>180.610896511646</v>
+      </c>
+      <c r="R20" t="n">
+        <v>238</v>
+      </c>
+      <c r="S20" t="n">
+        <v>8385.440717515819</v>
+      </c>
+      <c r="T20" t="n">
+        <v>91.57205205473896</v>
+      </c>
+      <c r="U20" t="n">
+        <v>121</v>
+      </c>
+      <c r="V20" t="n">
+        <v>247</v>
+      </c>
+      <c r="W20" t="n">
+        <v>175.9079001955212</v>
+      </c>
+      <c r="X20" t="n">
+        <v>231</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>7999.871667532073</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>89.4420016968095</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>118</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>241</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>124.8009956114969</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>28.50520796902006</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>5.339026874723526</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>121</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>129.5683164544753</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>6.378983035659028</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2.525664870021165</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>132</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>166.308159466598</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>218</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>7148.704731420135</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>84.5500131958602</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>111</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>229</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>176.5192085820618</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>232</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>8014.95472824904</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>89.52627953985936</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>119</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>242</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>175.0012998118139</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>225</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>8068.114853025018</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>89.82268562576505</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>117</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>white2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>435.8330615992954</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25.38333591645205</v>
+      </c>
+      <c r="F21" t="n">
+        <v>26</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.74451862116486</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.65665887290198</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
+        <v>27</v>
+      </c>
+      <c r="K21" t="n">
+        <v>34.01140402984279</v>
+      </c>
+      <c r="L21" t="n">
+        <v>33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>153.0740648234503</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12.37231040765832</v>
+      </c>
+      <c r="O21" t="n">
+        <v>24</v>
+      </c>
+      <c r="P21" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>180.139725117067</v>
+      </c>
+      <c r="R21" t="n">
+        <v>239</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8617.57656013457</v>
+      </c>
+      <c r="T21" t="n">
+        <v>92.83090304491589</v>
+      </c>
+      <c r="U21" t="n">
+        <v>106</v>
+      </c>
+      <c r="V21" t="n">
+        <v>247</v>
+      </c>
+      <c r="W21" t="n">
+        <v>175.3816570043709</v>
+      </c>
+      <c r="X21" t="n">
+        <v>232</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8218.720783835299</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>90.65716068703728</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>102</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>241</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>124.6216851128472</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>29.24332327922188</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>5.407709614912942</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>129.6326443142361</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>6.499422509434771</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2.549396499063018</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>132</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>165.7730023705365</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>219</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>7347.715307520368</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>85.71881536465823</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>96</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>228</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>175.952375799271</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>233</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>8243.973313766315</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>90.79632874608043</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>103</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>242</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>173.8927482176813</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>226</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>8308.078997233917</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>91.14866426467212</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>98</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>white3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>322.0131556754933</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25.77202030828708</v>
+      </c>
+      <c r="F22" t="n">
+        <v>26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.798224725541922</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.34097901756214</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>27</v>
+      </c>
+      <c r="K22" t="n">
+        <v>36.60203301984782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>35</v>
+      </c>
+      <c r="M22" t="n">
+        <v>123.5793432059927</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11.11662463187422</v>
+      </c>
+      <c r="O22" t="n">
+        <v>31</v>
+      </c>
+      <c r="P22" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>230.5261302368116</v>
+      </c>
+      <c r="R22" t="n">
+        <v>247</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3147.588376823215</v>
+      </c>
+      <c r="T22" t="n">
+        <v>56.10337224109809</v>
+      </c>
+      <c r="U22" t="n">
+        <v>242</v>
+      </c>
+      <c r="V22" t="n">
+        <v>250</v>
+      </c>
+      <c r="W22" t="n">
+        <v>223.7776838956734</v>
+      </c>
+      <c r="X22" t="n">
+        <v>240</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2974.26298576904</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>54.53680395631047</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>234</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>243</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>124.6940099344136</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>38.98233362142907</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>6.243583395889661</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>129.4792515432099</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>7.701448841818598</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2.775148435997361</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>211.3024881403723</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>226</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>2651.746501267864</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51.49511143077432</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>221</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>230</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>224.6079574141357</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>240</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>2993.927649575538</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>54.71679494977332</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>235</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>244</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>218.6129553279009</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>235</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2936.271660158465</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>54.18737546844712</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>226</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>white4</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>335.8583234946871</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>25.79154436073654</v>
+      </c>
+      <c r="F23" t="n">
+        <v>26</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.860820776103215</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.36411904762862</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>27</v>
+      </c>
+      <c r="K23" t="n">
+        <v>34.8593965562569</v>
+      </c>
+      <c r="L23" t="n">
+        <v>34</v>
+      </c>
+      <c r="M23" t="n">
+        <v>131.9518668627086</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11.48703037615504</v>
+      </c>
+      <c r="O23" t="n">
+        <v>28</v>
+      </c>
+      <c r="P23" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>224.7758808985783</v>
+      </c>
+      <c r="R23" t="n">
+        <v>247</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4384.148862512632</v>
+      </c>
+      <c r="T23" t="n">
+        <v>66.21290555860415</v>
+      </c>
+      <c r="U23" t="n">
+        <v>242</v>
+      </c>
+      <c r="V23" t="n">
+        <v>251</v>
+      </c>
+      <c r="W23" t="n">
+        <v>218.5903129745851</v>
+      </c>
+      <c r="X23" t="n">
+        <v>241</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>4150.43046198647</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>64.42383457996326</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>235</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>244</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>125.4679752604167</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>30.55777167685712</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>5.52790843600517</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>129.1330107060185</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>6.045003223457911</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2.4586588261607</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>206.4598764020273</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>227</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3700.094138500449</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>60.82839911176727</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>222</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>231</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>219.3220938596782</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>241</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4177.08160365113</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>64.63034584195825</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>236</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>245</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>214.8440618091952</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>237</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>4091.240216412405</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>63.96280338143728</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>227</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>white5</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>179.4330690954068</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.63616398594846</v>
+      </c>
+      <c r="F24" t="n">
+        <v>26</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.888236932592679</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.374131337461117</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>27</v>
+      </c>
+      <c r="K24" t="n">
+        <v>33.06306175546597</v>
+      </c>
+      <c r="L24" t="n">
+        <v>32</v>
+      </c>
+      <c r="M24" t="n">
+        <v>152.4747849149252</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12.3480680640708</v>
+      </c>
+      <c r="O24" t="n">
+        <v>26</v>
+      </c>
+      <c r="P24" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>203.5015854396347</v>
+      </c>
+      <c r="R24" t="n">
+        <v>242</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7307.322755144716</v>
+      </c>
+      <c r="T24" t="n">
+        <v>85.48287989501007</v>
+      </c>
+      <c r="U24" t="n">
+        <v>227</v>
+      </c>
+      <c r="V24" t="n">
+        <v>249</v>
+      </c>
+      <c r="W24" t="n">
+        <v>198.0732363203831</v>
+      </c>
+      <c r="X24" t="n">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>6934.877643630553</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>83.27591274570669</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>219</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>243</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>126.796897183642</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>14.87936508317881</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>3.857378006260056</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>128.5566411072531</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>3.137559773009267</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.77131583095993</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>187.1559698709975</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>222</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>6187.981244779047</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>78.66372254590452</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>207</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>230</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>198.6771733625365</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>236</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>6969.226362748072</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>83.48189242433398</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>220</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>244</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>195.9842450927717</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>232</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>6906.442949979754</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>83.10501158161134</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>209</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>white6</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>300.0210640730121</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25.15106557476326</v>
+      </c>
+      <c r="F25" t="n">
+        <v>26</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.760687655641711</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.181900010459167</v>
+      </c>
+      <c r="I25" t="n">
+        <v>24</v>
+      </c>
+      <c r="J25" t="n">
+        <v>27</v>
+      </c>
+      <c r="K25" t="n">
+        <v>31.0969713627446</v>
+      </c>
+      <c r="L25" t="n">
+        <v>30</v>
+      </c>
+      <c r="M25" t="n">
+        <v>97.92256659498425</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9.895583186198994</v>
+      </c>
+      <c r="O25" t="n">
+        <v>24</v>
+      </c>
+      <c r="P25" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>132.3933790816097</v>
+      </c>
+      <c r="R25" t="n">
+        <v>118</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9695.873822633162</v>
+      </c>
+      <c r="T25" t="n">
+        <v>98.46762829800036</v>
+      </c>
+      <c r="U25" t="n">
+        <v>37</v>
+      </c>
+      <c r="V25" t="n">
+        <v>244</v>
+      </c>
+      <c r="W25" t="n">
+        <v>129.0733524570058</v>
+      </c>
+      <c r="X25" t="n">
+        <v>115</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9252.583542449946</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>96.19035056828696</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>238</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>126.9348078221451</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>9.665235898156403</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>3.10889625078683</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>128.5362947289738</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2.22485095075057</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.491593426758971</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>122.0577893761413</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>108</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>8259.627302779869</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>90.88249172849449</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>225</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>129.4480617523539</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>115</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>9289.605441122652</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>96.38259926523382</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>238</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>128.8874658235976</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>113</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>9290.391602937392</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>96.38667751788827</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>35</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>white7</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>219.0020426903544</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25.72144244021456</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.821142927933612</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.349497287116062</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>27</v>
+      </c>
+      <c r="K26" t="n">
+        <v>39.37102802542436</v>
+      </c>
+      <c r="L26" t="n">
+        <v>38</v>
+      </c>
+      <c r="M26" t="n">
+        <v>94.7195419668199</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9.73239651713903</v>
+      </c>
+      <c r="O26" t="n">
+        <v>33</v>
+      </c>
+      <c r="P26" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>230.4475848776274</v>
+      </c>
+      <c r="R26" t="n">
+        <v>243</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2563.39949692203</v>
+      </c>
+      <c r="T26" t="n">
+        <v>50.6300256460732</v>
+      </c>
+      <c r="U26" t="n">
+        <v>237</v>
+      </c>
+      <c r="V26" t="n">
+        <v>248</v>
+      </c>
+      <c r="W26" t="n">
+        <v>223.2014949941045</v>
+      </c>
+      <c r="X26" t="n">
+        <v>235</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2415.132077689117</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>49.14399330222481</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>228</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>241</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>124.9958147665895</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>37.12290349076566</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>6.092856759416362</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>129.3677546296296</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>7.761865184006352</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2.786012416341024</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>210.6786893634938</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>222</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2153.649189638118</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>46.40742601823676</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>215</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>228</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>224.0616196995786</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>236</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2424.799808069109</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>49.24225632593524</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>229</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>242</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>216.3694186160458</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>228</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>2374.253994237329</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>48.72631726528621</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>217</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>white8</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>122.8318060006372</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25.19930930490201</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.06493597977054</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.750695855872898</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26</v>
+      </c>
+      <c r="K27" t="n">
+        <v>33.77853030945478</v>
+      </c>
+      <c r="L27" t="n">
+        <v>32</v>
+      </c>
+      <c r="M27" t="n">
+        <v>196.3841738580603</v>
+      </c>
+      <c r="N27" t="n">
+        <v>14.01371377822668</v>
+      </c>
+      <c r="O27" t="n">
+        <v>27</v>
+      </c>
+      <c r="P27" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>175.0637161707124</v>
+      </c>
+      <c r="R27" t="n">
+        <v>242</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10913.10195706018</v>
+      </c>
+      <c r="T27" t="n">
+        <v>104.465793239032</v>
+      </c>
+      <c r="U27" t="n">
+        <v>38</v>
+      </c>
+      <c r="V27" t="n">
+        <v>245</v>
+      </c>
+      <c r="W27" t="n">
+        <v>170.4887906511037</v>
+      </c>
+      <c r="X27" t="n">
+        <v>235</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10327.15705853541</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>101.6226208013521</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>239</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>126.9645598234954</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11.58917163181376</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>3.404287242847431</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>128.5034313512732</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2.681752789871687</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.637605810282709</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>161.2113643617577</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>222</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>9225.095265229256</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>96.04735949118673</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>226</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>171.7278455223657</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>236</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>10306.60190741244</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>101.5214357040543</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>43</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>240</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>169.8915360877251</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>230</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>10144.39201063441</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>100.719372568709</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>42</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>